--- a/database.xlsx
+++ b/database.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Nouns" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Adjectives" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Verbs" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Other" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="comprehension" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="old2" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="old" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="old_comprehension" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Comprehension" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7335" uniqueCount="3955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7392" uniqueCount="3992">
   <si>
     <t xml:space="preserve">German</t>
   </si>
@@ -11907,6 +11908,117 @@
   </si>
   <si>
     <t xml:space="preserve">Was kosten 2,80 Euro?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spritze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Arzt gibt dem Kind eine ___ gegen Grippe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die Gesundheit (A2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impfung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die ___ schützt vor gefährlichen Krankheiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hausarzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mein ___ kennt meine Krankengeschichte gut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facharzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe einen Termin beim ___ für Hautkrankheiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überweisung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Hausarzt gab mir eine ___ zum Kardiologen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allgemeinarzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der ___ untersucht täglich viele Patienten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gelenk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mein Knie___ schmerzt beim Gehen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwangerschaft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Gynäkologin begleitet die ___ mit regelmäßigen Untersuchungen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blutdruck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der ___ wird bei jeder Untersuchung gemessen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blutwerte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die ___ zeigen, ob man gesund ist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Urologe untersucht den ___ auf mögliche Infektionen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patientenbogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitte füllen Sie zuerst den ___ aus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krankheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die ___ wird durch Bakterien verursacht und erfordert eine Antibiotikabehandlung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmerzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe starke ___ im Rücken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impfungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">___ sind wichtig für die Vorbeugung von Infektionen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kommunizieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ärzte und Patienten müssen klar miteinander ___.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">untersuchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Ärztin wird das Gelenk gründlich ___.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernünftig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist ___, bei Fieber zu Hause zu bleiben.</t>
   </si>
 </sst>
 </file>
@@ -12001,7 +12113,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -12022,8 +12134,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -12043,16 +12159,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E537"/>
+  <dimension ref="A1:E556"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="39.43"/>
   </cols>
@@ -18137,9 +18253,13 @@
         <v>483</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="3"/>
-      <c r="B537" s="5"/>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="5"/>
+      <c r="B555" s="5"/>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="5"/>
+      <c r="B556" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18157,13 +18277,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
+      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.1"/>
@@ -19057,6 +19177,10 @@
       <c r="C80" s="0" t="s">
         <v>1056</v>
       </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -19074,13 +19198,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1160"/>
+  <dimension ref="A1:D1162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A507" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A508" activeCellId="0" sqref="A508"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1173" activeCellId="0" sqref="A1173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.07"/>
@@ -31901,6 +32025,14 @@
       <c r="C1160" s="0" t="s">
         <v>1826</v>
       </c>
+    </row>
+    <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1161" s="5"/>
+      <c r="B1161" s="5"/>
+    </row>
+    <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1162" s="5"/>
+      <c r="B1162" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -31924,7 +32056,7 @@
       <selection pane="topLeft" activeCell="A204" activeCellId="0" sqref="A204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.62"/>
   </cols>
@@ -33456,7 +33588,7 @@
       <selection pane="topLeft" activeCell="D348" activeCellId="0" sqref="D348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.43"/>
@@ -33485,7 +33617,7 @@
         <v>3147</v>
       </c>
       <c r="D2" s="0" t="e">
-        <f aca="false">+LOOKUP(A2,Nouns!A1:A1825,A2)</f>
+        <f aca="false">+LOOKUP(A2,Nouns!A1:A1790,A2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33500,7 +33632,7 @@
         <v>3147</v>
       </c>
       <c r="D3" s="0" t="e">
-        <f aca="false">+LOOKUP(A3,Nouns!A2:A1826,A3)</f>
+        <f aca="false">+LOOKUP(A3,Nouns!A2:A1791,A3)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33515,7 +33647,7 @@
         <v>3147</v>
       </c>
       <c r="D4" s="0" t="str">
-        <f aca="false">+LOOKUP(A4,Nouns!A3:A1827,A4)</f>
+        <f aca="false">+LOOKUP(A4,Nouns!A3:A1792,A4)</f>
         <v>das Handy</v>
       </c>
     </row>
@@ -33530,7 +33662,7 @@
         <v>3147</v>
       </c>
       <c r="D5" s="0" t="e">
-        <f aca="false">+LOOKUP(A5,Nouns!A4:A1828,A5)</f>
+        <f aca="false">+LOOKUP(A5,Nouns!A4:A1793,A5)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33545,7 +33677,7 @@
         <v>3147</v>
       </c>
       <c r="D6" s="0" t="e">
-        <f aca="false">+LOOKUP(A6,Nouns!A5:A1829,A6)</f>
+        <f aca="false">+LOOKUP(A6,Nouns!A5:A1794,A6)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33560,7 +33692,7 @@
         <v>3147</v>
       </c>
       <c r="D7" s="0" t="e">
-        <f aca="false">+LOOKUP(A7,Nouns!A6:A1830,A7)</f>
+        <f aca="false">+LOOKUP(A7,Nouns!A6:A1795,A7)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33575,7 +33707,7 @@
         <v>3147</v>
       </c>
       <c r="D8" s="0" t="e">
-        <f aca="false">+LOOKUP(A8,Nouns!A7:A1831,A8)</f>
+        <f aca="false">+LOOKUP(A8,Nouns!A7:A1796,A8)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33590,7 +33722,7 @@
         <v>3147</v>
       </c>
       <c r="D9" s="0" t="e">
-        <f aca="false">+LOOKUP(A9,Nouns!A8:A1832,A9)</f>
+        <f aca="false">+LOOKUP(A9,Nouns!A8:A1797,A9)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33605,7 +33737,7 @@
         <v>3147</v>
       </c>
       <c r="D10" s="0" t="e">
-        <f aca="false">+LOOKUP(A10,Nouns!A9:A1833,A10)</f>
+        <f aca="false">+LOOKUP(A10,Nouns!A9:A1798,A10)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33620,7 +33752,7 @@
         <v>3147</v>
       </c>
       <c r="D11" s="0" t="e">
-        <f aca="false">+LOOKUP(A11,Nouns!A10:A1834,A11)</f>
+        <f aca="false">+LOOKUP(A11,Nouns!A10:A1799,A11)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33635,7 +33767,7 @@
         <v>3147</v>
       </c>
       <c r="D12" s="0" t="e">
-        <f aca="false">+LOOKUP(A12,Nouns!A11:A1835,A12)</f>
+        <f aca="false">+LOOKUP(A12,Nouns!A11:A1800,A12)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33650,7 +33782,7 @@
         <v>3147</v>
       </c>
       <c r="D13" s="0" t="e">
-        <f aca="false">+LOOKUP(A13,Nouns!A12:A1836,A13)</f>
+        <f aca="false">+LOOKUP(A13,Nouns!A12:A1801,A13)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33665,7 +33797,7 @@
         <v>3147</v>
       </c>
       <c r="D14" s="0" t="e">
-        <f aca="false">+LOOKUP(A14,Nouns!A13:A1837,A14)</f>
+        <f aca="false">+LOOKUP(A14,Nouns!A13:A1802,A14)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33680,7 +33812,7 @@
         <v>3147</v>
       </c>
       <c r="D15" s="0" t="e">
-        <f aca="false">+LOOKUP(A15,Nouns!A14:A1838,A15)</f>
+        <f aca="false">+LOOKUP(A15,Nouns!A14:A1803,A15)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33695,7 +33827,7 @@
         <v>3147</v>
       </c>
       <c r="D16" s="0" t="e">
-        <f aca="false">+LOOKUP(A16,Nouns!A15:A1839,A16)</f>
+        <f aca="false">+LOOKUP(A16,Nouns!A15:A1804,A16)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33710,7 +33842,7 @@
         <v>3147</v>
       </c>
       <c r="D17" s="0" t="e">
-        <f aca="false">+LOOKUP(A17,Nouns!A16:A1840,A17)</f>
+        <f aca="false">+LOOKUP(A17,Nouns!A16:A1805,A17)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33725,7 +33857,7 @@
         <v>3147</v>
       </c>
       <c r="D18" s="0" t="e">
-        <f aca="false">+LOOKUP(A18,Nouns!A17:A1841,A18)</f>
+        <f aca="false">+LOOKUP(A18,Nouns!A17:A1806,A18)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33740,7 +33872,7 @@
         <v>3147</v>
       </c>
       <c r="D19" s="0" t="e">
-        <f aca="false">+LOOKUP(A19,Nouns!A18:A1842,A19)</f>
+        <f aca="false">+LOOKUP(A19,Nouns!A18:A1807,A19)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33755,7 +33887,7 @@
         <v>3147</v>
       </c>
       <c r="D20" s="0" t="e">
-        <f aca="false">+LOOKUP(A20,Nouns!A19:A1843,A20)</f>
+        <f aca="false">+LOOKUP(A20,Nouns!A19:A1808,A20)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33770,7 +33902,7 @@
         <v>3147</v>
       </c>
       <c r="D21" s="0" t="e">
-        <f aca="false">+LOOKUP(A21,Nouns!A20:A1844,A21)</f>
+        <f aca="false">+LOOKUP(A21,Nouns!A20:A1809,A21)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33785,7 +33917,7 @@
         <v>3147</v>
       </c>
       <c r="D22" s="0" t="e">
-        <f aca="false">+LOOKUP(A22,Nouns!A21:A1845,A22)</f>
+        <f aca="false">+LOOKUP(A22,Nouns!A21:A1810,A22)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33800,7 +33932,7 @@
         <v>3147</v>
       </c>
       <c r="D23" s="0" t="e">
-        <f aca="false">+LOOKUP(A23,Nouns!A22:A1846,A23)</f>
+        <f aca="false">+LOOKUP(A23,Nouns!A22:A1811,A23)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33815,7 +33947,7 @@
         <v>3147</v>
       </c>
       <c r="D24" s="0" t="e">
-        <f aca="false">+LOOKUP(A24,Nouns!A23:A1847,A24)</f>
+        <f aca="false">+LOOKUP(A24,Nouns!A23:A1812,A24)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33830,7 +33962,7 @@
         <v>3147</v>
       </c>
       <c r="D25" s="0" t="e">
-        <f aca="false">+LOOKUP(A25,Nouns!A24:A1848,A25)</f>
+        <f aca="false">+LOOKUP(A25,Nouns!A24:A1813,A25)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33845,7 +33977,7 @@
         <v>3147</v>
       </c>
       <c r="D26" s="0" t="e">
-        <f aca="false">+LOOKUP(A26,Nouns!A25:A1849,A26)</f>
+        <f aca="false">+LOOKUP(A26,Nouns!A25:A1814,A26)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33860,7 +33992,7 @@
         <v>3147</v>
       </c>
       <c r="D27" s="0" t="e">
-        <f aca="false">+LOOKUP(A27,Nouns!A26:A1850,A27)</f>
+        <f aca="false">+LOOKUP(A27,Nouns!A26:A1815,A27)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33875,7 +34007,7 @@
         <v>3147</v>
       </c>
       <c r="D28" s="0" t="e">
-        <f aca="false">+LOOKUP(A28,Nouns!A27:A1851,A28)</f>
+        <f aca="false">+LOOKUP(A28,Nouns!A27:A1816,A28)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33890,7 +34022,7 @@
         <v>3147</v>
       </c>
       <c r="D29" s="0" t="e">
-        <f aca="false">+LOOKUP(A29,Nouns!A28:A1852,A29)</f>
+        <f aca="false">+LOOKUP(A29,Nouns!A28:A1817,A29)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33905,7 +34037,7 @@
         <v>3147</v>
       </c>
       <c r="D30" s="0" t="e">
-        <f aca="false">+LOOKUP(A30,Nouns!A29:A1853,A30)</f>
+        <f aca="false">+LOOKUP(A30,Nouns!A29:A1818,A30)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33920,7 +34052,7 @@
         <v>3147</v>
       </c>
       <c r="D31" s="0" t="e">
-        <f aca="false">+LOOKUP(A31,Nouns!A30:A1854,A31)</f>
+        <f aca="false">+LOOKUP(A31,Nouns!A30:A1819,A31)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33935,7 +34067,7 @@
         <v>3147</v>
       </c>
       <c r="D32" s="0" t="e">
-        <f aca="false">+LOOKUP(A32,Nouns!A31:A1855,A32)</f>
+        <f aca="false">+LOOKUP(A32,Nouns!A31:A1820,A32)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33950,7 +34082,7 @@
         <v>3147</v>
       </c>
       <c r="D33" s="0" t="e">
-        <f aca="false">+LOOKUP(A33,Nouns!A32:A1856,A33)</f>
+        <f aca="false">+LOOKUP(A33,Nouns!A32:A1821,A33)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33965,7 +34097,7 @@
         <v>3147</v>
       </c>
       <c r="D34" s="0" t="e">
-        <f aca="false">+LOOKUP(A34,Nouns!A33:A1857,A34)</f>
+        <f aca="false">+LOOKUP(A34,Nouns!A33:A1822,A34)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33980,7 +34112,7 @@
         <v>3147</v>
       </c>
       <c r="D35" s="0" t="e">
-        <f aca="false">+LOOKUP(A35,Nouns!A34:A1858,A35)</f>
+        <f aca="false">+LOOKUP(A35,Nouns!A34:A1823,A35)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -33995,7 +34127,7 @@
         <v>3147</v>
       </c>
       <c r="D36" s="0" t="e">
-        <f aca="false">+LOOKUP(A36,Nouns!A35:A1859,A36)</f>
+        <f aca="false">+LOOKUP(A36,Nouns!A35:A1824,A36)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34010,7 +34142,7 @@
         <v>3147</v>
       </c>
       <c r="D37" s="0" t="e">
-        <f aca="false">+LOOKUP(A37,Nouns!A36:A1860,A37)</f>
+        <f aca="false">+LOOKUP(A37,Nouns!A36:A1825,A37)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34025,7 +34157,7 @@
         <v>3147</v>
       </c>
       <c r="D38" s="0" t="e">
-        <f aca="false">+LOOKUP(A38,Nouns!A37:A1861,A38)</f>
+        <f aca="false">+LOOKUP(A38,Nouns!A37:A1826,A38)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34040,7 +34172,7 @@
         <v>3147</v>
       </c>
       <c r="D39" s="0" t="e">
-        <f aca="false">+LOOKUP(A39,Nouns!A38:A1862,A39)</f>
+        <f aca="false">+LOOKUP(A39,Nouns!A38:A1827,A39)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34055,7 +34187,7 @@
         <v>3147</v>
       </c>
       <c r="D40" s="0" t="e">
-        <f aca="false">+LOOKUP(A40,Nouns!A39:A1863,A40)</f>
+        <f aca="false">+LOOKUP(A40,Nouns!A39:A1828,A40)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34070,7 +34202,7 @@
         <v>3147</v>
       </c>
       <c r="D41" s="0" t="e">
-        <f aca="false">+LOOKUP(A41,Nouns!A40:A1864,A41)</f>
+        <f aca="false">+LOOKUP(A41,Nouns!A40:A1829,A41)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34085,7 +34217,7 @@
         <v>3147</v>
       </c>
       <c r="D42" s="0" t="e">
-        <f aca="false">+LOOKUP(A42,Nouns!A41:A1865,A42)</f>
+        <f aca="false">+LOOKUP(A42,Nouns!A41:A1830,A42)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34100,7 +34232,7 @@
         <v>3147</v>
       </c>
       <c r="D43" s="0" t="e">
-        <f aca="false">+LOOKUP(A43,Nouns!A42:A1866,A43)</f>
+        <f aca="false">+LOOKUP(A43,Nouns!A42:A1831,A43)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34115,7 +34247,7 @@
         <v>3147</v>
       </c>
       <c r="D44" s="0" t="e">
-        <f aca="false">+LOOKUP(A44,Nouns!A43:A1867,A44)</f>
+        <f aca="false">+LOOKUP(A44,Nouns!A43:A1832,A44)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34130,7 +34262,7 @@
         <v>3191</v>
       </c>
       <c r="D45" s="0" t="e">
-        <f aca="false">+LOOKUP(A45,Nouns!A44:A1868,A45)</f>
+        <f aca="false">+LOOKUP(A45,Nouns!A44:A1833,A45)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34145,7 +34277,7 @@
         <v>3147</v>
       </c>
       <c r="D46" s="0" t="e">
-        <f aca="false">+LOOKUP(A46,Nouns!A45:A1869,A46)</f>
+        <f aca="false">+LOOKUP(A46,Nouns!A45:A1834,A46)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34160,7 +34292,7 @@
         <v>3147</v>
       </c>
       <c r="D47" s="0" t="e">
-        <f aca="false">+LOOKUP(A47,Nouns!A46:A1870,A47)</f>
+        <f aca="false">+LOOKUP(A47,Nouns!A46:A1835,A47)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34175,7 +34307,7 @@
         <v>3147</v>
       </c>
       <c r="D48" s="0" t="e">
-        <f aca="false">+LOOKUP(A48,Nouns!A47:A1871,A48)</f>
+        <f aca="false">+LOOKUP(A48,Nouns!A47:A1836,A48)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34190,7 +34322,7 @@
         <v>3147</v>
       </c>
       <c r="D49" s="0" t="e">
-        <f aca="false">+LOOKUP(A49,Nouns!A48:A1872,A49)</f>
+        <f aca="false">+LOOKUP(A49,Nouns!A48:A1837,A49)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34205,7 +34337,7 @@
         <v>3147</v>
       </c>
       <c r="D50" s="0" t="e">
-        <f aca="false">+LOOKUP(A50,Nouns!A49:A1873,A50)</f>
+        <f aca="false">+LOOKUP(A50,Nouns!A49:A1838,A50)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34220,7 +34352,7 @@
         <v>3147</v>
       </c>
       <c r="D51" s="0" t="e">
-        <f aca="false">+LOOKUP(A51,Nouns!A50:A1874,A51)</f>
+        <f aca="false">+LOOKUP(A51,Nouns!A50:A1839,A51)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34235,7 +34367,7 @@
         <v>3147</v>
       </c>
       <c r="D52" s="0" t="e">
-        <f aca="false">+LOOKUP(A52,Nouns!A51:A1875,A52)</f>
+        <f aca="false">+LOOKUP(A52,Nouns!A51:A1840,A52)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34250,7 +34382,7 @@
         <v>3147</v>
       </c>
       <c r="D53" s="0" t="e">
-        <f aca="false">+LOOKUP(A53,Nouns!A52:A1876,A53)</f>
+        <f aca="false">+LOOKUP(A53,Nouns!A52:A1841,A53)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34265,7 +34397,7 @@
         <v>3147</v>
       </c>
       <c r="D54" s="0" t="e">
-        <f aca="false">+LOOKUP(A54,Nouns!A53:A1877,A54)</f>
+        <f aca="false">+LOOKUP(A54,Nouns!A53:A1842,A54)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34280,7 +34412,7 @@
         <v>3147</v>
       </c>
       <c r="D55" s="0" t="e">
-        <f aca="false">+LOOKUP(A55,Nouns!A54:A1878,A55)</f>
+        <f aca="false">+LOOKUP(A55,Nouns!A54:A1843,A55)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34295,7 +34427,7 @@
         <v>3147</v>
       </c>
       <c r="D56" s="0" t="e">
-        <f aca="false">+LOOKUP(A56,Nouns!A55:A1879,A56)</f>
+        <f aca="false">+LOOKUP(A56,Nouns!A55:A1844,A56)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34310,7 +34442,7 @@
         <v>3147</v>
       </c>
       <c r="D57" s="0" t="e">
-        <f aca="false">+LOOKUP(A57,Nouns!A56:A1880,A57)</f>
+        <f aca="false">+LOOKUP(A57,Nouns!A56:A1845,A57)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34325,7 +34457,7 @@
         <v>3147</v>
       </c>
       <c r="D58" s="0" t="e">
-        <f aca="false">+LOOKUP(A58,Nouns!A57:A1881,A58)</f>
+        <f aca="false">+LOOKUP(A58,Nouns!A57:A1846,A58)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34340,7 +34472,7 @@
         <v>3147</v>
       </c>
       <c r="D59" s="0" t="e">
-        <f aca="false">+LOOKUP(A59,Nouns!A58:A1882,A59)</f>
+        <f aca="false">+LOOKUP(A59,Nouns!A58:A1847,A59)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34355,7 +34487,7 @@
         <v>3147</v>
       </c>
       <c r="D60" s="0" t="e">
-        <f aca="false">+LOOKUP(A60,Nouns!A59:A1883,A60)</f>
+        <f aca="false">+LOOKUP(A60,Nouns!A59:A1848,A60)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34370,7 +34502,7 @@
         <v>3147</v>
       </c>
       <c r="D61" s="0" t="e">
-        <f aca="false">+LOOKUP(A61,Nouns!A60:A1884,A61)</f>
+        <f aca="false">+LOOKUP(A61,Nouns!A60:A1849,A61)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34385,7 +34517,7 @@
         <v>3147</v>
       </c>
       <c r="D62" s="0" t="e">
-        <f aca="false">+LOOKUP(A62,Nouns!A61:A1885,A62)</f>
+        <f aca="false">+LOOKUP(A62,Nouns!A61:A1850,A62)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34400,7 +34532,7 @@
         <v>3147</v>
       </c>
       <c r="D63" s="0" t="e">
-        <f aca="false">+LOOKUP(A63,Nouns!A62:A1886,A63)</f>
+        <f aca="false">+LOOKUP(A63,Nouns!A62:A1851,A63)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34415,7 +34547,7 @@
         <v>3147</v>
       </c>
       <c r="D64" s="0" t="e">
-        <f aca="false">+LOOKUP(A64,Nouns!A64:A1887,A64)</f>
+        <f aca="false">+LOOKUP(A64,Nouns!A64:A1852,A64)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34430,7 +34562,7 @@
         <v>3147</v>
       </c>
       <c r="D65" s="0" t="e">
-        <f aca="false">+LOOKUP(A65,Nouns!A118:A1941,A65)</f>
+        <f aca="false">+LOOKUP(A65,Nouns!A118:A1906,A65)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34445,7 +34577,7 @@
         <v>3147</v>
       </c>
       <c r="D66" s="0" t="e">
-        <f aca="false">+LOOKUP(A66,Nouns!A119:A1942,A66)</f>
+        <f aca="false">+LOOKUP(A66,Nouns!A119:A1907,A66)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34460,7 +34592,7 @@
         <v>3147</v>
       </c>
       <c r="D67" s="0" t="e">
-        <f aca="false">+LOOKUP(A67,Nouns!A120:A1943,A67)</f>
+        <f aca="false">+LOOKUP(A67,Nouns!A120:A1908,A67)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34475,7 +34607,7 @@
         <v>3147</v>
       </c>
       <c r="D68" s="0" t="e">
-        <f aca="false">+LOOKUP(A68,Nouns!A121:A1944,A68)</f>
+        <f aca="false">+LOOKUP(A68,Nouns!A121:A1909,A68)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34490,7 +34622,7 @@
         <v>3147</v>
       </c>
       <c r="D69" s="0" t="str">
-        <f aca="false">+LOOKUP(A69,Nouns!A122:A1945,A69)</f>
+        <f aca="false">+LOOKUP(A69,Nouns!A122:A1910,A69)</f>
         <v>die Gruppe</v>
       </c>
     </row>
@@ -34505,7 +34637,7 @@
         <v>3147</v>
       </c>
       <c r="D70" s="0" t="str">
-        <f aca="false">+LOOKUP(A70,Nouns!A123:A1946,A70)</f>
+        <f aca="false">+LOOKUP(A70,Nouns!A123:A1911,A70)</f>
         <v>die Karte</v>
       </c>
     </row>
@@ -34520,7 +34652,7 @@
         <v>3147</v>
       </c>
       <c r="D71" s="0" t="e">
-        <f aca="false">+LOOKUP(A71,Nouns!A124:A1947,A71)</f>
+        <f aca="false">+LOOKUP(A71,Nouns!A124:A1912,A71)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34535,7 +34667,7 @@
         <v>3147</v>
       </c>
       <c r="D72" s="0" t="e">
-        <f aca="false">+LOOKUP(A72,Nouns!A125:A1948,A72)</f>
+        <f aca="false">+LOOKUP(A72,Nouns!A125:A1913,A72)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34550,7 +34682,7 @@
         <v>3147</v>
       </c>
       <c r="D73" s="0" t="e">
-        <f aca="false">+LOOKUP(A73,Nouns!A126:A1949,A73)</f>
+        <f aca="false">+LOOKUP(A73,Nouns!A126:A1914,A73)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34565,7 +34697,7 @@
         <v>3147</v>
       </c>
       <c r="D74" s="0" t="e">
-        <f aca="false">+LOOKUP(A74,Nouns!A127:A1950,A74)</f>
+        <f aca="false">+LOOKUP(A74,Nouns!A127:A1915,A74)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34580,7 +34712,7 @@
         <v>3147</v>
       </c>
       <c r="D75" s="0" t="str">
-        <f aca="false">+LOOKUP(A75,Nouns!A128:A1951,A75)</f>
+        <f aca="false">+LOOKUP(A75,Nouns!A128:A1916,A75)</f>
         <v>die Bedeutung</v>
       </c>
     </row>
@@ -34595,7 +34727,7 @@
         <v>3147</v>
       </c>
       <c r="D76" s="0" t="e">
-        <f aca="false">+LOOKUP(A76,Nouns!A129:A1952,A76)</f>
+        <f aca="false">+LOOKUP(A76,Nouns!A129:A1917,A76)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34610,7 +34742,7 @@
         <v>3147</v>
       </c>
       <c r="D77" s="0" t="e">
-        <f aca="false">+LOOKUP(A77,Nouns!A130:A1953,A77)</f>
+        <f aca="false">+LOOKUP(A77,Nouns!A130:A1918,A77)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34625,7 +34757,7 @@
         <v>3147</v>
       </c>
       <c r="D78" s="0" t="e">
-        <f aca="false">+LOOKUP(A78,Nouns!A131:A1954,A78)</f>
+        <f aca="false">+LOOKUP(A78,Nouns!A131:A1919,A78)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34640,7 +34772,7 @@
         <v>3147</v>
       </c>
       <c r="D79" s="0" t="e">
-        <f aca="false">+LOOKUP(A79,Nouns!A132:A1955,A79)</f>
+        <f aca="false">+LOOKUP(A79,Nouns!A132:A1920,A79)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34655,7 +34787,7 @@
         <v>3147</v>
       </c>
       <c r="D80" s="0" t="e">
-        <f aca="false">+LOOKUP(A80,Nouns!A133:A1956,A80)</f>
+        <f aca="false">+LOOKUP(A80,Nouns!A133:A1921,A80)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34670,7 +34802,7 @@
         <v>3147</v>
       </c>
       <c r="D81" s="0" t="e">
-        <f aca="false">+LOOKUP(A81,Nouns!A134:A1957,A81)</f>
+        <f aca="false">+LOOKUP(A81,Nouns!A134:A1922,A81)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34685,7 +34817,7 @@
         <v>3147</v>
       </c>
       <c r="D82" s="0" t="str">
-        <f aca="false">+LOOKUP(A82,Nouns!A135:A1958,A82)</f>
+        <f aca="false">+LOOKUP(A82,Nouns!A135:A1923,A82)</f>
         <v>das Taxi</v>
       </c>
     </row>
@@ -34700,7 +34832,7 @@
         <v>3147</v>
       </c>
       <c r="D83" s="0" t="e">
-        <f aca="false">+LOOKUP(A83,Nouns!A136:A1959,A83)</f>
+        <f aca="false">+LOOKUP(A83,Nouns!A136:A1924,A83)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34715,7 +34847,7 @@
         <v>3147</v>
       </c>
       <c r="D84" s="0" t="e">
-        <f aca="false">+LOOKUP(A84,Nouns!A137:A1960,A84)</f>
+        <f aca="false">+LOOKUP(A84,Nouns!A137:A1925,A84)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34730,7 +34862,7 @@
         <v>3147</v>
       </c>
       <c r="D85" s="0" t="e">
-        <f aca="false">+LOOKUP(A85,Nouns!A138:A1961,A85)</f>
+        <f aca="false">+LOOKUP(A85,Nouns!A138:A1926,A85)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34745,7 +34877,7 @@
         <v>3147</v>
       </c>
       <c r="D86" s="0" t="str">
-        <f aca="false">+LOOKUP(A86,Nouns!A139:A1962,A86)</f>
+        <f aca="false">+LOOKUP(A86,Nouns!A139:A1927,A86)</f>
         <v>die Toilette</v>
       </c>
     </row>
@@ -34760,7 +34892,7 @@
         <v>3147</v>
       </c>
       <c r="D87" s="0" t="e">
-        <f aca="false">+LOOKUP(A87,Nouns!A140:A1963,A87)</f>
+        <f aca="false">+LOOKUP(A87,Nouns!A140:A1928,A87)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34775,7 +34907,7 @@
         <v>3147</v>
       </c>
       <c r="D88" s="0" t="e">
-        <f aca="false">+LOOKUP(A88,Nouns!A141:A1964,A88)</f>
+        <f aca="false">+LOOKUP(A88,Nouns!A141:A1929,A88)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34790,7 +34922,7 @@
         <v>3147</v>
       </c>
       <c r="D89" s="0" t="e">
-        <f aca="false">+LOOKUP(A89,Nouns!A142:A1965,A89)</f>
+        <f aca="false">+LOOKUP(A89,Nouns!A142:A1930,A89)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34805,7 +34937,7 @@
         <v>3147</v>
       </c>
       <c r="D90" s="0" t="e">
-        <f aca="false">+LOOKUP(A90,Nouns!A143:A1966,A90)</f>
+        <f aca="false">+LOOKUP(A90,Nouns!A143:A1931,A90)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34820,7 +34952,7 @@
         <v>3147</v>
       </c>
       <c r="D91" s="0" t="e">
-        <f aca="false">+LOOKUP(A91,Nouns!A144:A1967,A91)</f>
+        <f aca="false">+LOOKUP(A91,Nouns!A144:A1932,A91)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34835,7 +34967,7 @@
         <v>3238</v>
       </c>
       <c r="D92" s="0" t="e">
-        <f aca="false">+LOOKUP(A92,Nouns!A186:A2009,A92)</f>
+        <f aca="false">+LOOKUP(A92,Nouns!A186:A1974,A92)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34850,7 +34982,7 @@
         <v>3238</v>
       </c>
       <c r="D93" s="0" t="e">
-        <f aca="false">+LOOKUP(A93,Nouns!A187:A2010,A93)</f>
+        <f aca="false">+LOOKUP(A93,Nouns!A187:A1975,A93)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34865,7 +34997,7 @@
         <v>3238</v>
       </c>
       <c r="D94" s="0" t="e">
-        <f aca="false">+LOOKUP(A94,Nouns!A188:A2011,A94)</f>
+        <f aca="false">+LOOKUP(A94,Nouns!A188:A1976,A94)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34880,7 +35012,7 @@
         <v>3238</v>
       </c>
       <c r="D95" s="0" t="e">
-        <f aca="false">+LOOKUP(A95,Nouns!A189:A2012,A95)</f>
+        <f aca="false">+LOOKUP(A95,Nouns!A189:A1977,A95)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34895,7 +35027,7 @@
         <v>3238</v>
       </c>
       <c r="D96" s="0" t="e">
-        <f aca="false">+LOOKUP(A96,Nouns!A190:A2013,A96)</f>
+        <f aca="false">+LOOKUP(A96,Nouns!A190:A1978,A96)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34910,7 +35042,7 @@
         <v>3238</v>
       </c>
       <c r="D97" s="0" t="e">
-        <f aca="false">+LOOKUP(A97,Nouns!A191:A2014,A97)</f>
+        <f aca="false">+LOOKUP(A97,Nouns!A191:A1979,A97)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34925,7 +35057,7 @@
         <v>3238</v>
       </c>
       <c r="D98" s="0" t="e">
-        <f aca="false">+LOOKUP(A98,Nouns!A192:A2015,A98)</f>
+        <f aca="false">+LOOKUP(A98,Nouns!A192:A1980,A98)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34940,7 +35072,7 @@
         <v>3246</v>
       </c>
       <c r="D99" s="0" t="e">
-        <f aca="false">+LOOKUP(A99,Nouns!A193:A2016,A99)</f>
+        <f aca="false">+LOOKUP(A99,Nouns!A193:A1981,A99)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34955,7 +35087,7 @@
         <v>3246</v>
       </c>
       <c r="D100" s="0" t="e">
-        <f aca="false">+LOOKUP(A100,Nouns!A194:A2017,A100)</f>
+        <f aca="false">+LOOKUP(A100,Nouns!A194:A1982,A100)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34970,7 +35102,7 @@
         <v>3246</v>
       </c>
       <c r="D101" s="0" t="e">
-        <f aca="false">+LOOKUP(A101,Nouns!A195:A2018,A101)</f>
+        <f aca="false">+LOOKUP(A101,Nouns!A195:A1983,A101)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34985,7 +35117,7 @@
         <v>3246</v>
       </c>
       <c r="D102" s="0" t="e">
-        <f aca="false">+LOOKUP(A102,Nouns!A196:A2019,A102)</f>
+        <f aca="false">+LOOKUP(A102,Nouns!A196:A1984,A102)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35000,7 +35132,7 @@
         <v>3246</v>
       </c>
       <c r="D103" s="0" t="e">
-        <f aca="false">+LOOKUP(A103,Nouns!A197:A2020,A103)</f>
+        <f aca="false">+LOOKUP(A103,Nouns!A197:A1985,A103)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35015,7 +35147,7 @@
         <v>3246</v>
       </c>
       <c r="D104" s="0" t="e">
-        <f aca="false">+LOOKUP(A104,Nouns!A198:A2021,A104)</f>
+        <f aca="false">+LOOKUP(A104,Nouns!A198:A1986,A104)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35030,7 +35162,7 @@
         <v>3246</v>
       </c>
       <c r="D105" s="0" t="e">
-        <f aca="false">+LOOKUP(A105,Nouns!A199:A2022,A105)</f>
+        <f aca="false">+LOOKUP(A105,Nouns!A199:A1987,A105)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35045,7 +35177,7 @@
         <v>3246</v>
       </c>
       <c r="D106" s="0" t="e">
-        <f aca="false">+LOOKUP(A106,Nouns!A200:A2023,A106)</f>
+        <f aca="false">+LOOKUP(A106,Nouns!A200:A1988,A106)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35060,7 +35192,7 @@
         <v>3246</v>
       </c>
       <c r="D107" s="0" t="e">
-        <f aca="false">+LOOKUP(A107,Nouns!A201:A2024,A107)</f>
+        <f aca="false">+LOOKUP(A107,Nouns!A201:A1989,A107)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35075,7 +35207,7 @@
         <v>3246</v>
       </c>
       <c r="D108" s="0" t="e">
-        <f aca="false">+LOOKUP(A108,Nouns!A202:A2025,A108)</f>
+        <f aca="false">+LOOKUP(A108,Nouns!A202:A1990,A108)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35090,7 +35222,7 @@
         <v>3246</v>
       </c>
       <c r="D109" s="0" t="e">
-        <f aca="false">+LOOKUP(A109,Nouns!A203:A2026,A109)</f>
+        <f aca="false">+LOOKUP(A109,Nouns!A203:A1991,A109)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35105,7 +35237,7 @@
         <v>3246</v>
       </c>
       <c r="D110" s="0" t="e">
-        <f aca="false">+LOOKUP(A110,Nouns!A204:A2027,A110)</f>
+        <f aca="false">+LOOKUP(A110,Nouns!A204:A1992,A110)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35120,7 +35252,7 @@
         <v>3259</v>
       </c>
       <c r="D111" s="0" t="e">
-        <f aca="false">+LOOKUP(A111,Nouns!A205:A2028,A111)</f>
+        <f aca="false">+LOOKUP(A111,Nouns!A205:A1993,A111)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35135,7 +35267,7 @@
         <v>3259</v>
       </c>
       <c r="D112" s="0" t="e">
-        <f aca="false">+LOOKUP(A112,Nouns!A206:A2029,A112)</f>
+        <f aca="false">+LOOKUP(A112,Nouns!A206:A1994,A112)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35150,7 +35282,7 @@
         <v>3259</v>
       </c>
       <c r="D113" s="0" t="e">
-        <f aca="false">+LOOKUP(A113,Nouns!A207:A2030,A113)</f>
+        <f aca="false">+LOOKUP(A113,Nouns!A207:A1995,A113)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35165,7 +35297,7 @@
         <v>3259</v>
       </c>
       <c r="D114" s="0" t="e">
-        <f aca="false">+LOOKUP(A114,Nouns!A208:A2031,A114)</f>
+        <f aca="false">+LOOKUP(A114,Nouns!A208:A1996,A114)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35180,7 +35312,7 @@
         <v>3264</v>
       </c>
       <c r="D115" s="0" t="e">
-        <f aca="false">+LOOKUP(A115,Nouns!A209:A2032,A115)</f>
+        <f aca="false">+LOOKUP(A115,Nouns!A209:A1997,A115)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35195,7 +35327,7 @@
         <v>3264</v>
       </c>
       <c r="D116" s="0" t="e">
-        <f aca="false">+LOOKUP(A116,Nouns!A210:A2033,A116)</f>
+        <f aca="false">+LOOKUP(A116,Nouns!A210:A1998,A116)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35210,7 +35342,7 @@
         <v>3264</v>
       </c>
       <c r="D117" s="0" t="e">
-        <f aca="false">+LOOKUP(A117,Nouns!A211:A2034,A117)</f>
+        <f aca="false">+LOOKUP(A117,Nouns!A211:A1999,A117)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35225,7 +35357,7 @@
         <v>3264</v>
       </c>
       <c r="D118" s="0" t="e">
-        <f aca="false">+LOOKUP(A118,Nouns!A212:A2035,A118)</f>
+        <f aca="false">+LOOKUP(A118,Nouns!A212:A2000,A118)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35240,7 +35372,7 @@
         <v>3264</v>
       </c>
       <c r="D119" s="0" t="e">
-        <f aca="false">+LOOKUP(A119,Nouns!A213:A2036,A119)</f>
+        <f aca="false">+LOOKUP(A119,Nouns!A213:A2001,A119)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35255,7 +35387,7 @@
         <v>3264</v>
       </c>
       <c r="D120" s="0" t="e">
-        <f aca="false">+LOOKUP(A120,Nouns!A214:A2037,A120)</f>
+        <f aca="false">+LOOKUP(A120,Nouns!A214:A2002,A120)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35270,7 +35402,7 @@
         <v>3264</v>
       </c>
       <c r="D121" s="0" t="e">
-        <f aca="false">+LOOKUP(A121,Nouns!A215:A2038,A121)</f>
+        <f aca="false">+LOOKUP(A121,Nouns!A215:A2003,A121)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35285,7 +35417,7 @@
         <v>3191</v>
       </c>
       <c r="D122" s="0" t="e">
-        <f aca="false">+LOOKUP(A122,Nouns!A239:A2062,A122)</f>
+        <f aca="false">+LOOKUP(A122,Nouns!A239:A2027,A122)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35300,7 +35432,7 @@
         <v>3191</v>
       </c>
       <c r="D123" s="0" t="e">
-        <f aca="false">+LOOKUP(A123,Nouns!A240:A2063,A123)</f>
+        <f aca="false">+LOOKUP(A123,Nouns!A240:A2028,A123)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35315,7 +35447,7 @@
         <v>3191</v>
       </c>
       <c r="D124" s="0" t="str">
-        <f aca="false">+LOOKUP(A124,Nouns!A241:A2064,A124)</f>
+        <f aca="false">+LOOKUP(A124,Nouns!A241:A2029,A124)</f>
         <v>der Apfel</v>
       </c>
     </row>
@@ -35330,7 +35462,7 @@
         <v>3191</v>
       </c>
       <c r="D125" s="0" t="str">
-        <f aca="false">+LOOKUP(A125,Nouns!A242:A2065,A125)</f>
+        <f aca="false">+LOOKUP(A125,Nouns!A242:A2030,A125)</f>
         <v>der Paradeiser</v>
       </c>
     </row>
@@ -35345,7 +35477,7 @@
         <v>3191</v>
       </c>
       <c r="D126" s="0" t="e">
-        <f aca="false">+LOOKUP(A126,Nouns!A243:A2066,A126)</f>
+        <f aca="false">+LOOKUP(A126,Nouns!A243:A2031,A126)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35360,7 +35492,7 @@
         <v>3191</v>
       </c>
       <c r="D127" s="0" t="e">
-        <f aca="false">+LOOKUP(A127,Nouns!A244:A2067,A127)</f>
+        <f aca="false">+LOOKUP(A127,Nouns!A244:A2032,A127)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35375,7 +35507,7 @@
         <v>3191</v>
       </c>
       <c r="D128" s="0" t="e">
-        <f aca="false">+LOOKUP(A128,Nouns!A245:A2068,A128)</f>
+        <f aca="false">+LOOKUP(A128,Nouns!A245:A2033,A128)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35390,7 +35522,7 @@
         <v>3191</v>
       </c>
       <c r="D129" s="0" t="e">
-        <f aca="false">+LOOKUP(A129,Nouns!A246:A2069,A129)</f>
+        <f aca="false">+LOOKUP(A129,Nouns!A246:A2034,A129)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35405,7 +35537,7 @@
         <v>3191</v>
       </c>
       <c r="D130" s="0" t="e">
-        <f aca="false">+LOOKUP(A130,Nouns!A247:A2070,A130)</f>
+        <f aca="false">+LOOKUP(A130,Nouns!A247:A2035,A130)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35420,7 +35552,7 @@
         <v>3191</v>
       </c>
       <c r="D131" s="0" t="e">
-        <f aca="false">+LOOKUP(A131,Nouns!A248:A2071,A131)</f>
+        <f aca="false">+LOOKUP(A131,Nouns!A248:A2036,A131)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35435,7 +35567,7 @@
         <v>3191</v>
       </c>
       <c r="D132" s="0" t="str">
-        <f aca="false">+LOOKUP(A132,Nouns!A249:A2072,A132)</f>
+        <f aca="false">+LOOKUP(A132,Nouns!A249:A2037,A132)</f>
         <v>die Banane</v>
       </c>
     </row>
@@ -35450,7 +35582,7 @@
         <v>3191</v>
       </c>
       <c r="D133" s="0" t="str">
-        <f aca="false">+LOOKUP(A133,Nouns!A250:A2073,A133)</f>
+        <f aca="false">+LOOKUP(A133,Nouns!A250:A2038,A133)</f>
         <v>die Butter</v>
       </c>
     </row>
@@ -35465,7 +35597,7 @@
         <v>3191</v>
       </c>
       <c r="D134" s="0" t="str">
-        <f aca="false">+LOOKUP(A134,Nouns!A251:A2074,A134)</f>
+        <f aca="false">+LOOKUP(A134,Nouns!A251:A2039,A134)</f>
         <v>die Milch</v>
       </c>
     </row>
@@ -35480,7 +35612,7 @@
         <v>3191</v>
       </c>
       <c r="D135" s="0" t="e">
-        <f aca="false">+LOOKUP(A135,Nouns!A252:A2075,A135)</f>
+        <f aca="false">+LOOKUP(A135,Nouns!A252:A2040,A135)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35495,7 +35627,7 @@
         <v>3191</v>
       </c>
       <c r="D136" s="0" t="str">
-        <f aca="false">+LOOKUP(A136,Nouns!A253:A2076,A136)</f>
+        <f aca="false">+LOOKUP(A136,Nouns!A253:A2041,A136)</f>
         <v>die Schokolade</v>
       </c>
     </row>
@@ -35510,7 +35642,7 @@
         <v>3191</v>
       </c>
       <c r="D137" s="0" t="e">
-        <f aca="false">+LOOKUP(A137,Nouns!A254:A2077,A137)</f>
+        <f aca="false">+LOOKUP(A137,Nouns!A254:A2042,A137)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35525,7 +35657,7 @@
         <v>3191</v>
       </c>
       <c r="D138" s="0" t="e">
-        <f aca="false">+LOOKUP(A138,Nouns!A255:A2078,A138)</f>
+        <f aca="false">+LOOKUP(A138,Nouns!A255:A2043,A138)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35540,7 +35672,7 @@
         <v>3191</v>
       </c>
       <c r="D139" s="0" t="e">
-        <f aca="false">+LOOKUP(A139,Nouns!A256:A2079,A139)</f>
+        <f aca="false">+LOOKUP(A139,Nouns!A256:A2044,A139)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35555,7 +35687,7 @@
         <v>3191</v>
       </c>
       <c r="D140" s="0" t="e">
-        <f aca="false">+LOOKUP(A140,Nouns!A257:A2080,A140)</f>
+        <f aca="false">+LOOKUP(A140,Nouns!A257:A2045,A140)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35570,7 +35702,7 @@
         <v>3191</v>
       </c>
       <c r="D141" s="0" t="e">
-        <f aca="false">+LOOKUP(A141,Nouns!A258:A2081,A141)</f>
+        <f aca="false">+LOOKUP(A141,Nouns!A258:A2046,A141)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35585,7 +35717,7 @@
         <v>3191</v>
       </c>
       <c r="D142" s="0" t="e">
-        <f aca="false">+LOOKUP(A142,Nouns!A259:A2082,A142)</f>
+        <f aca="false">+LOOKUP(A142,Nouns!A259:A2047,A142)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35600,7 +35732,7 @@
         <v>3191</v>
       </c>
       <c r="D143" s="0" t="e">
-        <f aca="false">+LOOKUP(A143,Nouns!A260:A2083,A143)</f>
+        <f aca="false">+LOOKUP(A143,Nouns!A260:A2048,A143)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35615,7 +35747,7 @@
         <v>3191</v>
       </c>
       <c r="D144" s="0" t="e">
-        <f aca="false">+LOOKUP(A144,Nouns!A261:A2084,A144)</f>
+        <f aca="false">+LOOKUP(A144,Nouns!A261:A2049,A144)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35630,7 +35762,7 @@
         <v>3191</v>
       </c>
       <c r="D145" s="0" t="e">
-        <f aca="false">+LOOKUP(A145,Nouns!A262:A2085,A145)</f>
+        <f aca="false">+LOOKUP(A145,Nouns!A262:A2050,A145)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35645,7 +35777,7 @@
         <v>3191</v>
       </c>
       <c r="D146" s="0" t="e">
-        <f aca="false">+LOOKUP(A146,Nouns!A263:A2086,A146)</f>
+        <f aca="false">+LOOKUP(A146,Nouns!A263:A2051,A146)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35660,7 +35792,7 @@
         <v>3191</v>
       </c>
       <c r="D147" s="0" t="e">
-        <f aca="false">+LOOKUP(A147,Nouns!A264:A2087,A147)</f>
+        <f aca="false">+LOOKUP(A147,Nouns!A264:A2052,A147)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35675,7 +35807,7 @@
         <v>3191</v>
       </c>
       <c r="D148" s="0" t="e">
-        <f aca="false">+LOOKUP(A148,Nouns!A265:A2088,A148)</f>
+        <f aca="false">+LOOKUP(A148,Nouns!A265:A2053,A148)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35690,7 +35822,7 @@
         <v>3191</v>
       </c>
       <c r="D149" s="0" t="str">
-        <f aca="false">+LOOKUP(A149,Nouns!A266:A2089,A149)</f>
+        <f aca="false">+LOOKUP(A149,Nouns!A266:A2054,A149)</f>
         <v>das Ei</v>
       </c>
     </row>
@@ -35705,7 +35837,7 @@
         <v>3298</v>
       </c>
       <c r="D150" s="0" t="str">
-        <f aca="false">+LOOKUP(A150,Nouns!A267:A2090,A150)</f>
+        <f aca="false">+LOOKUP(A150,Nouns!A267:A2055,A150)</f>
         <v>der Baum</v>
       </c>
     </row>
@@ -35720,7 +35852,7 @@
         <v>3300</v>
       </c>
       <c r="D151" s="0" t="str">
-        <f aca="false">+LOOKUP(A151,Nouns!A268:A2091,A151)</f>
+        <f aca="false">+LOOKUP(A151,Nouns!A268:A2056,A151)</f>
         <v>der Reiskocher</v>
       </c>
     </row>
@@ -35735,7 +35867,7 @@
         <v>3147</v>
       </c>
       <c r="D152" s="0" t="e">
-        <f aca="false">+LOOKUP(A152,Nouns!A269:A2092,A152)</f>
+        <f aca="false">+LOOKUP(A152,Nouns!A269:A2057,A152)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35750,7 +35882,7 @@
         <v>3303</v>
       </c>
       <c r="D153" s="0" t="e">
-        <f aca="false">+LOOKUP(A153,Nouns!A270:A2093,A153)</f>
+        <f aca="false">+LOOKUP(A153,Nouns!A270:A2058,A153)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35765,7 +35897,7 @@
         <v>3305</v>
       </c>
       <c r="D154" s="0" t="e">
-        <f aca="false">+LOOKUP(A154,Nouns!A271:A2094,A154)</f>
+        <f aca="false">+LOOKUP(A154,Nouns!A271:A2059,A154)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35780,7 +35912,7 @@
         <v>3147</v>
       </c>
       <c r="D155" s="0" t="e">
-        <f aca="false">+LOOKUP(A155,Nouns!A272:A2095,A155)</f>
+        <f aca="false">+LOOKUP(A155,Nouns!A272:A2060,A155)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35795,7 +35927,7 @@
         <v>3147</v>
       </c>
       <c r="D156" s="0" t="e">
-        <f aca="false">+LOOKUP(A156,Nouns!A273:A2096,A156)</f>
+        <f aca="false">+LOOKUP(A156,Nouns!A273:A2061,A156)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35810,7 +35942,7 @@
         <v>3147</v>
       </c>
       <c r="D157" s="0" t="e">
-        <f aca="false">+LOOKUP(A157,Nouns!A274:A2097,A157)</f>
+        <f aca="false">+LOOKUP(A157,Nouns!A274:A2062,A157)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35825,7 +35957,7 @@
         <v>3147</v>
       </c>
       <c r="D158" s="0" t="e">
-        <f aca="false">+LOOKUP(A158,Nouns!A275:A2098,A158)</f>
+        <f aca="false">+LOOKUP(A158,Nouns!A275:A2063,A158)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35840,7 +35972,7 @@
         <v>3303</v>
       </c>
       <c r="D159" s="0" t="e">
-        <f aca="false">+LOOKUP(A159,Nouns!A276:A2099,A159)</f>
+        <f aca="false">+LOOKUP(A159,Nouns!A276:A2064,A159)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35855,7 +35987,7 @@
         <v>3191</v>
       </c>
       <c r="D160" s="0" t="e">
-        <f aca="false">+LOOKUP(A160,Nouns!A277:A2100,A160)</f>
+        <f aca="false">+LOOKUP(A160,Nouns!A277:A2065,A160)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35870,7 +36002,7 @@
         <v>3191</v>
       </c>
       <c r="D161" s="0" t="e">
-        <f aca="false">+LOOKUP(A161,Nouns!A278:A2101,A161)</f>
+        <f aca="false">+LOOKUP(A161,Nouns!A278:A2066,A161)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35885,7 +36017,7 @@
         <v>3191</v>
       </c>
       <c r="D162" s="0" t="e">
-        <f aca="false">+LOOKUP(A162,Nouns!A279:A2102,A162)</f>
+        <f aca="false">+LOOKUP(A162,Nouns!A279:A2067,A162)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35900,7 +36032,7 @@
         <v>3191</v>
       </c>
       <c r="D163" s="0" t="e">
-        <f aca="false">+LOOKUP(A163,Nouns!A280:A2103,A163)</f>
+        <f aca="false">+LOOKUP(A163,Nouns!A280:A2068,A163)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35915,7 +36047,7 @@
         <v>3191</v>
       </c>
       <c r="D164" s="0" t="e">
-        <f aca="false">+LOOKUP(A164,Nouns!A281:A2104,A164)</f>
+        <f aca="false">+LOOKUP(A164,Nouns!A281:A2069,A164)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35930,7 +36062,7 @@
         <v>3191</v>
       </c>
       <c r="D165" s="0" t="e">
-        <f aca="false">+LOOKUP(A165,Nouns!A282:A2105,A165)</f>
+        <f aca="false">+LOOKUP(A165,Nouns!A282:A2070,A165)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35945,7 +36077,7 @@
         <v>3300</v>
       </c>
       <c r="D166" s="0" t="e">
-        <f aca="false">+LOOKUP(A166,Nouns!A283:A2106,A166)</f>
+        <f aca="false">+LOOKUP(A166,Nouns!A283:A2071,A166)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35960,7 +36092,7 @@
         <v>3191</v>
       </c>
       <c r="D167" s="0" t="e">
-        <f aca="false">+LOOKUP(A167,Nouns!A284:A2107,A167)</f>
+        <f aca="false">+LOOKUP(A167,Nouns!A284:A2072,A167)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35975,7 +36107,7 @@
         <v>3191</v>
       </c>
       <c r="D168" s="0" t="e">
-        <f aca="false">+LOOKUP(A168,Nouns!A285:A2108,A168)</f>
+        <f aca="false">+LOOKUP(A168,Nouns!A285:A2073,A168)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -35990,7 +36122,7 @@
         <v>3191</v>
       </c>
       <c r="D169" s="0" t="e">
-        <f aca="false">+LOOKUP(A169,Nouns!A286:A2109,A169)</f>
+        <f aca="false">+LOOKUP(A169,Nouns!A286:A2074,A169)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36005,7 +36137,7 @@
         <v>3191</v>
       </c>
       <c r="D170" s="0" t="e">
-        <f aca="false">+LOOKUP(A170,Nouns!A287:A2110,A170)</f>
+        <f aca="false">+LOOKUP(A170,Nouns!A287:A2075,A170)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36020,7 +36152,7 @@
         <v>3191</v>
       </c>
       <c r="D171" s="0" t="e">
-        <f aca="false">+LOOKUP(A171,Nouns!A288:A2111,A171)</f>
+        <f aca="false">+LOOKUP(A171,Nouns!A288:A2076,A171)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36035,7 +36167,7 @@
         <v>3191</v>
       </c>
       <c r="D172" s="0" t="e">
-        <f aca="false">+LOOKUP(A172,Nouns!A289:A2112,A172)</f>
+        <f aca="false">+LOOKUP(A172,Nouns!A289:A2077,A172)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36050,7 +36182,7 @@
         <v>3191</v>
       </c>
       <c r="D173" s="0" t="e">
-        <f aca="false">+LOOKUP(A173,Nouns!A290:A2113,A173)</f>
+        <f aca="false">+LOOKUP(A173,Nouns!A290:A2078,A173)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36065,7 +36197,7 @@
         <v>3328</v>
       </c>
       <c r="D174" s="0" t="e">
-        <f aca="false">+LOOKUP(A174,Nouns!A291:A2114,A174)</f>
+        <f aca="false">+LOOKUP(A174,Nouns!A291:A2079,A174)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36080,7 +36212,7 @@
         <v>3328</v>
       </c>
       <c r="D175" s="0" t="e">
-        <f aca="false">+LOOKUP(A175,Nouns!A292:A2115,A175)</f>
+        <f aca="false">+LOOKUP(A175,Nouns!A292:A2080,A175)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36095,7 +36227,7 @@
         <v>3328</v>
       </c>
       <c r="D176" s="0" t="e">
-        <f aca="false">+LOOKUP(A176,Nouns!A293:A2116,A176)</f>
+        <f aca="false">+LOOKUP(A176,Nouns!A293:A2081,A176)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36110,7 +36242,7 @@
         <v>3328</v>
       </c>
       <c r="D177" s="0" t="e">
-        <f aca="false">+LOOKUP(A177,Nouns!A294:A2117,A177)</f>
+        <f aca="false">+LOOKUP(A177,Nouns!A294:A2082,A177)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36125,7 +36257,7 @@
         <v>3328</v>
       </c>
       <c r="D178" s="0" t="e">
-        <f aca="false">+LOOKUP(A178,Nouns!A295:A2118,A178)</f>
+        <f aca="false">+LOOKUP(A178,Nouns!A295:A2083,A178)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36140,7 +36272,7 @@
         <v>3328</v>
       </c>
       <c r="D179" s="0" t="e">
-        <f aca="false">+LOOKUP(A179,Nouns!A296:A2119,A179)</f>
+        <f aca="false">+LOOKUP(A179,Nouns!A296:A2084,A179)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36155,7 +36287,7 @@
         <v>3328</v>
       </c>
       <c r="D180" s="0" t="e">
-        <f aca="false">+LOOKUP(A180,Nouns!A297:A2120,A180)</f>
+        <f aca="false">+LOOKUP(A180,Nouns!A297:A2085,A180)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36170,7 +36302,7 @@
         <v>3328</v>
       </c>
       <c r="D181" s="0" t="e">
-        <f aca="false">+LOOKUP(A181,Nouns!A298:A2121,A181)</f>
+        <f aca="false">+LOOKUP(A181,Nouns!A298:A2086,A181)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36185,7 +36317,7 @@
         <v>3328</v>
       </c>
       <c r="D182" s="0" t="e">
-        <f aca="false">+LOOKUP(A182,Nouns!A299:A2122,A182)</f>
+        <f aca="false">+LOOKUP(A182,Nouns!A299:A2087,A182)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36200,7 +36332,7 @@
         <v>3328</v>
       </c>
       <c r="D183" s="0" t="e">
-        <f aca="false">+LOOKUP(A183,Nouns!A300:A2123,A183)</f>
+        <f aca="false">+LOOKUP(A183,Nouns!A300:A2088,A183)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36215,7 +36347,7 @@
         <v>3328</v>
       </c>
       <c r="D184" s="0" t="e">
-        <f aca="false">+LOOKUP(A184,Nouns!A301:A2124,A184)</f>
+        <f aca="false">+LOOKUP(A184,Nouns!A301:A2089,A184)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36230,7 +36362,7 @@
         <v>3328</v>
       </c>
       <c r="D185" s="0" t="e">
-        <f aca="false">+LOOKUP(A185,Nouns!A302:A2125,A185)</f>
+        <f aca="false">+LOOKUP(A185,Nouns!A302:A2090,A185)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36245,7 +36377,7 @@
         <v>3328</v>
       </c>
       <c r="D186" s="0" t="e">
-        <f aca="false">+LOOKUP(A186,Nouns!A303:A2126,A186)</f>
+        <f aca="false">+LOOKUP(A186,Nouns!A303:A2091,A186)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36260,7 +36392,7 @@
         <v>3328</v>
       </c>
       <c r="D187" s="0" t="e">
-        <f aca="false">+LOOKUP(A187,Nouns!A304:A2127,A187)</f>
+        <f aca="false">+LOOKUP(A187,Nouns!A304:A2092,A187)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36275,7 +36407,7 @@
         <v>3328</v>
       </c>
       <c r="D188" s="0" t="e">
-        <f aca="false">+LOOKUP(A188,Nouns!A305:A2128,A188)</f>
+        <f aca="false">+LOOKUP(A188,Nouns!A305:A2093,A188)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36290,7 +36422,7 @@
         <v>3328</v>
       </c>
       <c r="D189" s="0" t="e">
-        <f aca="false">+LOOKUP(A189,Nouns!A306:A2129,A189)</f>
+        <f aca="false">+LOOKUP(A189,Nouns!A306:A2094,A189)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36305,7 +36437,7 @@
         <v>3328</v>
       </c>
       <c r="D190" s="0" t="e">
-        <f aca="false">+LOOKUP(A190,Nouns!A307:A2130,A190)</f>
+        <f aca="false">+LOOKUP(A190,Nouns!A307:A2095,A190)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36320,7 +36452,7 @@
         <v>3328</v>
       </c>
       <c r="D191" s="0" t="e">
-        <f aca="false">+LOOKUP(A191,Nouns!A308:A2131,A191)</f>
+        <f aca="false">+LOOKUP(A191,Nouns!A308:A2096,A191)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36335,7 +36467,7 @@
         <v>3328</v>
       </c>
       <c r="D192" s="0" t="e">
-        <f aca="false">+LOOKUP(A192,Nouns!A309:A2132,A192)</f>
+        <f aca="false">+LOOKUP(A192,Nouns!A309:A2097,A192)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36350,7 +36482,7 @@
         <v>3328</v>
       </c>
       <c r="D193" s="0" t="e">
-        <f aca="false">+LOOKUP(A193,Nouns!A310:A2133,A193)</f>
+        <f aca="false">+LOOKUP(A193,Nouns!A310:A2098,A193)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36365,7 +36497,7 @@
         <v>3328</v>
       </c>
       <c r="D194" s="0" t="e">
-        <f aca="false">+LOOKUP(A194,Nouns!A311:A2134,A194)</f>
+        <f aca="false">+LOOKUP(A194,Nouns!A311:A2099,A194)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36380,7 +36512,7 @@
         <v>3328</v>
       </c>
       <c r="D195" s="0" t="e">
-        <f aca="false">+LOOKUP(A195,Nouns!A312:A2135,A195)</f>
+        <f aca="false">+LOOKUP(A195,Nouns!A312:A2100,A195)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36395,7 +36527,7 @@
         <v>3328</v>
       </c>
       <c r="D196" s="0" t="e">
-        <f aca="false">+LOOKUP(A196,Nouns!A313:A2136,A196)</f>
+        <f aca="false">+LOOKUP(A196,Nouns!A313:A2101,A196)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36410,7 +36542,7 @@
         <v>3328</v>
       </c>
       <c r="D197" s="0" t="e">
-        <f aca="false">+LOOKUP(A197,Nouns!A314:A2137,A197)</f>
+        <f aca="false">+LOOKUP(A197,Nouns!A314:A2102,A197)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36425,7 +36557,7 @@
         <v>3328</v>
       </c>
       <c r="D198" s="0" t="e">
-        <f aca="false">+LOOKUP(A198,Nouns!A315:A2138,A198)</f>
+        <f aca="false">+LOOKUP(A198,Nouns!A315:A2103,A198)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36440,7 +36572,7 @@
         <v>3328</v>
       </c>
       <c r="D199" s="0" t="e">
-        <f aca="false">+LOOKUP(A199,Nouns!A316:A2139,A199)</f>
+        <f aca="false">+LOOKUP(A199,Nouns!A316:A2104,A199)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36455,7 +36587,7 @@
         <v>3328</v>
       </c>
       <c r="D200" s="0" t="e">
-        <f aca="false">+LOOKUP(A200,Nouns!A317:A2140,A200)</f>
+        <f aca="false">+LOOKUP(A200,Nouns!A317:A2105,A200)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36470,7 +36602,7 @@
         <v>3328</v>
       </c>
       <c r="D201" s="0" t="e">
-        <f aca="false">+LOOKUP(A201,Nouns!A318:A2141,A201)</f>
+        <f aca="false">+LOOKUP(A201,Nouns!A318:A2106,A201)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36485,7 +36617,7 @@
         <v>3328</v>
       </c>
       <c r="D202" s="0" t="e">
-        <f aca="false">+LOOKUP(A202,Nouns!A320:A2142,A202)</f>
+        <f aca="false">+LOOKUP(A202,Nouns!A320:A2107,A202)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36500,7 +36632,7 @@
         <v>3328</v>
       </c>
       <c r="D203" s="0" t="e">
-        <f aca="false">+LOOKUP(A203,Nouns!A322:A2143,A203)</f>
+        <f aca="false">+LOOKUP(A203,Nouns!A322:A2108,A203)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36515,7 +36647,7 @@
         <v>3328</v>
       </c>
       <c r="D204" s="0" t="e">
-        <f aca="false">+LOOKUP(A204,Nouns!A323:A2144,A204)</f>
+        <f aca="false">+LOOKUP(A204,Nouns!A323:A2109,A204)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36530,7 +36662,7 @@
         <v>3328</v>
       </c>
       <c r="D205" s="0" t="e">
-        <f aca="false">+LOOKUP(A205,Nouns!A324:A2145,A205)</f>
+        <f aca="false">+LOOKUP(A205,Nouns!A324:A2110,A205)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36545,7 +36677,7 @@
         <v>3328</v>
       </c>
       <c r="D206" s="0" t="e">
-        <f aca="false">+LOOKUP(A206,Nouns!A325:A2146,A206)</f>
+        <f aca="false">+LOOKUP(A206,Nouns!A325:A2111,A206)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36560,7 +36692,7 @@
         <v>3328</v>
       </c>
       <c r="D207" s="0" t="e">
-        <f aca="false">+LOOKUP(A207,Nouns!A326:A2147,A207)</f>
+        <f aca="false">+LOOKUP(A207,Nouns!A326:A2112,A207)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36575,7 +36707,7 @@
         <v>3328</v>
       </c>
       <c r="D208" s="0" t="e">
-        <f aca="false">+LOOKUP(A208,Nouns!A327:A2148,A208)</f>
+        <f aca="false">+LOOKUP(A208,Nouns!A327:A2113,A208)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36590,7 +36722,7 @@
         <v>3328</v>
       </c>
       <c r="D209" s="0" t="e">
-        <f aca="false">+LOOKUP(A209,Nouns!A328:A2149,A209)</f>
+        <f aca="false">+LOOKUP(A209,Nouns!A328:A2114,A209)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36605,7 +36737,7 @@
         <v>3328</v>
       </c>
       <c r="D210" s="0" t="e">
-        <f aca="false">+LOOKUP(A210,Nouns!A329:A2150,A210)</f>
+        <f aca="false">+LOOKUP(A210,Nouns!A329:A2115,A210)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36620,7 +36752,7 @@
         <v>3328</v>
       </c>
       <c r="D211" s="0" t="e">
-        <f aca="false">+LOOKUP(A211,Nouns!A330:A2151,A211)</f>
+        <f aca="false">+LOOKUP(A211,Nouns!A330:A2116,A211)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36635,7 +36767,7 @@
         <v>3328</v>
       </c>
       <c r="D212" s="0" t="e">
-        <f aca="false">+LOOKUP(A212,Nouns!A331:A2152,A212)</f>
+        <f aca="false">+LOOKUP(A212,Nouns!A331:A2117,A212)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36650,7 +36782,7 @@
         <v>3328</v>
       </c>
       <c r="D213" s="0" t="e">
-        <f aca="false">+LOOKUP(A213,Nouns!A332:A2153,A213)</f>
+        <f aca="false">+LOOKUP(A213,Nouns!A332:A2118,A213)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36665,7 +36797,7 @@
         <v>3328</v>
       </c>
       <c r="D214" s="0" t="e">
-        <f aca="false">+LOOKUP(A214,Nouns!A333:A2154,A214)</f>
+        <f aca="false">+LOOKUP(A214,Nouns!A333:A2119,A214)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36680,7 +36812,7 @@
         <v>3328</v>
       </c>
       <c r="D215" s="0" t="e">
-        <f aca="false">+LOOKUP(A215,Nouns!A334:A2155,A215)</f>
+        <f aca="false">+LOOKUP(A215,Nouns!A334:A2120,A215)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36695,7 +36827,7 @@
         <v>3328</v>
       </c>
       <c r="D216" s="0" t="e">
-        <f aca="false">+LOOKUP(A216,Nouns!A334:A2156,A216)</f>
+        <f aca="false">+LOOKUP(A216,Nouns!A334:A2121,A216)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36710,7 +36842,7 @@
         <v>3328</v>
       </c>
       <c r="D217" s="0" t="e">
-        <f aca="false">+LOOKUP(A217,Nouns!A335:A2157,A217)</f>
+        <f aca="false">+LOOKUP(A217,Nouns!A335:A2122,A217)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36725,7 +36857,7 @@
         <v>3328</v>
       </c>
       <c r="D218" s="0" t="e">
-        <f aca="false">+LOOKUP(A218,Nouns!A336:A2158,A218)</f>
+        <f aca="false">+LOOKUP(A218,Nouns!A336:A2123,A218)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36740,7 +36872,7 @@
         <v>3328</v>
       </c>
       <c r="D219" s="0" t="e">
-        <f aca="false">+LOOKUP(A219,Nouns!A337:A2159,A219)</f>
+        <f aca="false">+LOOKUP(A219,Nouns!A337:A2124,A219)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36755,7 +36887,7 @@
         <v>3328</v>
       </c>
       <c r="D220" s="0" t="e">
-        <f aca="false">+LOOKUP(A220,Nouns!A338:A2160,A220)</f>
+        <f aca="false">+LOOKUP(A220,Nouns!A338:A2125,A220)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36770,7 +36902,7 @@
         <v>3328</v>
       </c>
       <c r="D221" s="0" t="e">
-        <f aca="false">+LOOKUP(A221,Nouns!A338:A2161,A221)</f>
+        <f aca="false">+LOOKUP(A221,Nouns!A338:A2126,A221)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36785,7 +36917,7 @@
         <v>3328</v>
       </c>
       <c r="D222" s="0" t="e">
-        <f aca="false">+LOOKUP(A222,Nouns!A339:A2162,A222)</f>
+        <f aca="false">+LOOKUP(A222,Nouns!A339:A2127,A222)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36800,7 +36932,7 @@
         <v>3328</v>
       </c>
       <c r="D223" s="0" t="e">
-        <f aca="false">+LOOKUP(A223,Nouns!A340:A2163,A223)</f>
+        <f aca="false">+LOOKUP(A223,Nouns!A340:A2128,A223)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36815,7 +36947,7 @@
         <v>3328</v>
       </c>
       <c r="D224" s="0" t="e">
-        <f aca="false">+LOOKUP(A224,Nouns!A341:A2164,A224)</f>
+        <f aca="false">+LOOKUP(A224,Nouns!A341:A2129,A224)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36830,7 +36962,7 @@
         <v>3328</v>
       </c>
       <c r="D225" s="0" t="e">
-        <f aca="false">+LOOKUP(A225,Nouns!A342:A2165,A225)</f>
+        <f aca="false">+LOOKUP(A225,Nouns!A342:A2130,A225)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36845,7 +36977,7 @@
         <v>3328</v>
       </c>
       <c r="D226" s="0" t="e">
-        <f aca="false">+LOOKUP(A226,Nouns!A343:A2166,A226)</f>
+        <f aca="false">+LOOKUP(A226,Nouns!A343:A2131,A226)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36860,7 +36992,7 @@
         <v>3328</v>
       </c>
       <c r="D227" s="0" t="e">
-        <f aca="false">+LOOKUP(A227,Nouns!A344:A2167,A227)</f>
+        <f aca="false">+LOOKUP(A227,Nouns!A344:A2132,A227)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36875,7 +37007,7 @@
         <v>3328</v>
       </c>
       <c r="D228" s="0" t="e">
-        <f aca="false">+LOOKUP(A228,Nouns!A345:A2168,A228)</f>
+        <f aca="false">+LOOKUP(A228,Nouns!A345:A2133,A228)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36890,7 +37022,7 @@
         <v>3328</v>
       </c>
       <c r="D229" s="0" t="e">
-        <f aca="false">+LOOKUP(A229,Nouns!A346:A2169,A229)</f>
+        <f aca="false">+LOOKUP(A229,Nouns!A346:A2134,A229)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36905,7 +37037,7 @@
         <v>3328</v>
       </c>
       <c r="D230" s="0" t="e">
-        <f aca="false">+LOOKUP(A230,Nouns!A347:A2170,A230)</f>
+        <f aca="false">+LOOKUP(A230,Nouns!A347:A2135,A230)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36920,7 +37052,7 @@
         <v>3328</v>
       </c>
       <c r="D231" s="0" t="e">
-        <f aca="false">+LOOKUP(A231,Nouns!A348:A2171,A231)</f>
+        <f aca="false">+LOOKUP(A231,Nouns!A348:A2136,A231)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36935,7 +37067,7 @@
         <v>3328</v>
       </c>
       <c r="D232" s="0" t="e">
-        <f aca="false">+LOOKUP(A232,Nouns!A322:A2172,A232)</f>
+        <f aca="false">+LOOKUP(A232,Nouns!A322:A2137,A232)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36950,7 +37082,7 @@
         <v>3328</v>
       </c>
       <c r="D233" s="0" t="e">
-        <f aca="false">+LOOKUP(A233,Nouns!A323:A2173,A233)</f>
+        <f aca="false">+LOOKUP(A233,Nouns!A323:A2138,A233)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36965,7 +37097,7 @@
         <v>3328</v>
       </c>
       <c r="D234" s="0" t="e">
-        <f aca="false">+LOOKUP(A234,Nouns!A324:A2174,A234)</f>
+        <f aca="false">+LOOKUP(A234,Nouns!A324:A2139,A234)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36980,7 +37112,7 @@
         <v>3328</v>
       </c>
       <c r="D235" s="0" t="e">
-        <f aca="false">+LOOKUP(A235,Nouns!A325:A2175,A235)</f>
+        <f aca="false">+LOOKUP(A235,Nouns!A325:A2140,A235)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -36995,7 +37127,7 @@
         <v>3191</v>
       </c>
       <c r="D236" s="0" t="e">
-        <f aca="false">+LOOKUP(A236,Nouns!A326:A2176,A236)</f>
+        <f aca="false">+LOOKUP(A236,Nouns!A326:A2141,A236)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37010,7 +37142,7 @@
         <v>3191</v>
       </c>
       <c r="D237" s="0" t="e">
-        <f aca="false">+LOOKUP(A237,Nouns!A327:A2177,A237)</f>
+        <f aca="false">+LOOKUP(A237,Nouns!A327:A2142,A237)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37025,7 +37157,7 @@
         <v>3191</v>
       </c>
       <c r="D238" s="0" t="e">
-        <f aca="false">+LOOKUP(A238,Nouns!A328:A2178,A238)</f>
+        <f aca="false">+LOOKUP(A238,Nouns!A328:A2143,A238)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37040,7 +37172,7 @@
         <v>3191</v>
       </c>
       <c r="D239" s="0" t="e">
-        <f aca="false">+LOOKUP(A239,Nouns!A329:A2179,A239)</f>
+        <f aca="false">+LOOKUP(A239,Nouns!A329:A2144,A239)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37055,7 +37187,7 @@
         <v>3191</v>
       </c>
       <c r="D240" s="0" t="e">
-        <f aca="false">+LOOKUP(A240,Nouns!A330:A2180,A240)</f>
+        <f aca="false">+LOOKUP(A240,Nouns!A330:A2145,A240)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37070,7 +37202,7 @@
         <v>3191</v>
       </c>
       <c r="D241" s="0" t="e">
-        <f aca="false">+LOOKUP(A241,Nouns!A331:A2181,A241)</f>
+        <f aca="false">+LOOKUP(A241,Nouns!A331:A2146,A241)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37085,7 +37217,7 @@
         <v>3191</v>
       </c>
       <c r="D242" s="0" t="e">
-        <f aca="false">+LOOKUP(A242,Nouns!A322:A2182,A242)</f>
+        <f aca="false">+LOOKUP(A242,Nouns!A322:A2147,A242)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37100,7 +37232,7 @@
         <v>3191</v>
       </c>
       <c r="D243" s="0" t="e">
-        <f aca="false">+LOOKUP(A243,Nouns!A323:A2183,A243)</f>
+        <f aca="false">+LOOKUP(A243,Nouns!A323:A2148,A243)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37115,7 +37247,7 @@
         <v>3191</v>
       </c>
       <c r="D244" s="0" t="e">
-        <f aca="false">+LOOKUP(A244,Nouns!A324:A2184,A244)</f>
+        <f aca="false">+LOOKUP(A244,Nouns!A324:A2149,A244)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37130,7 +37262,7 @@
         <v>3147</v>
       </c>
       <c r="D245" s="0" t="str">
-        <f aca="false">+LOOKUP(A245,Nouns!A334:A2205,A245)</f>
+        <f aca="false">+LOOKUP(A245,Nouns!A334:A2170,A245)</f>
         <v>das Sonderangebot</v>
       </c>
     </row>
@@ -37145,7 +37277,7 @@
         <v>3191</v>
       </c>
       <c r="D246" s="0" t="e">
-        <f aca="false">+LOOKUP(A246,Nouns!A335:A2206,A246)</f>
+        <f aca="false">+LOOKUP(A246,Nouns!A335:A2171,A246)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37160,7 +37292,7 @@
         <v>3191</v>
       </c>
       <c r="D247" s="0" t="e">
-        <f aca="false">+LOOKUP(A247,Nouns!A336:A2207,A247)</f>
+        <f aca="false">+LOOKUP(A247,Nouns!A336:A2172,A247)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37175,7 +37307,7 @@
         <v>3191</v>
       </c>
       <c r="D248" s="0" t="e">
-        <f aca="false">+LOOKUP(A248,Nouns!A337:A2208,A248)</f>
+        <f aca="false">+LOOKUP(A248,Nouns!A337:A2173,A248)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37190,7 +37322,7 @@
         <v>3191</v>
       </c>
       <c r="D249" s="0" t="e">
-        <f aca="false">+LOOKUP(A249,Nouns!A338:A2209,A249)</f>
+        <f aca="false">+LOOKUP(A249,Nouns!A338:A2174,A249)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37205,7 +37337,7 @@
         <v>3147</v>
       </c>
       <c r="D250" s="0" t="e">
-        <f aca="false">+LOOKUP(A250,Nouns!A338:A2210,A250)</f>
+        <f aca="false">+LOOKUP(A250,Nouns!A338:A2175,A250)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37220,7 +37352,7 @@
         <v>3147</v>
       </c>
       <c r="D251" s="0" t="e">
-        <f aca="false">+LOOKUP(A251,Nouns!A339:A2211,A251)</f>
+        <f aca="false">+LOOKUP(A251,Nouns!A339:A2176,A251)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37235,7 +37367,7 @@
         <v>3147</v>
       </c>
       <c r="D252" s="0" t="e">
-        <f aca="false">+LOOKUP(A252,Nouns!A340:A2212,A252)</f>
+        <f aca="false">+LOOKUP(A252,Nouns!A340:A2177,A252)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37250,7 +37382,7 @@
         <v>3147</v>
       </c>
       <c r="D253" s="0" t="e">
-        <f aca="false">+LOOKUP(A253,Nouns!A341:A2213,A253)</f>
+        <f aca="false">+LOOKUP(A253,Nouns!A341:A2178,A253)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37265,7 +37397,7 @@
         <v>3147</v>
       </c>
       <c r="D254" s="0" t="e">
-        <f aca="false">+LOOKUP(A254,Nouns!A342:A2214,A254)</f>
+        <f aca="false">+LOOKUP(A254,Nouns!A342:A2179,A254)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37280,7 +37412,7 @@
         <v>3147</v>
       </c>
       <c r="D255" s="0" t="e">
-        <f aca="false">+LOOKUP(A255,Nouns!A343:A2215,A255)</f>
+        <f aca="false">+LOOKUP(A255,Nouns!A343:A2180,A255)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37295,7 +37427,7 @@
         <v>3147</v>
       </c>
       <c r="D256" s="0" t="e">
-        <f aca="false">+LOOKUP(A256,Nouns!A335:A2216,A256)</f>
+        <f aca="false">+LOOKUP(A256,Nouns!A335:A2181,A256)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37310,7 +37442,7 @@
         <v>3147</v>
       </c>
       <c r="D257" s="0" t="str">
-        <f aca="false">+LOOKUP(A257,Nouns!A336:A2217,A257)</f>
+        <f aca="false">+LOOKUP(A257,Nouns!A336:A2182,A257)</f>
         <v>der Projektor</v>
       </c>
     </row>
@@ -37325,7 +37457,7 @@
         <v>3147</v>
       </c>
       <c r="D258" s="0" t="e">
-        <f aca="false">+LOOKUP(A258,Nouns!A335:A2219,A258)</f>
+        <f aca="false">+LOOKUP(A258,Nouns!A335:A2184,A258)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37340,7 +37472,7 @@
         <v>3191</v>
       </c>
       <c r="D259" s="0" t="e">
-        <f aca="false">+LOOKUP(A259,Nouns!A338:A2243,A259)</f>
+        <f aca="false">+LOOKUP(A259,Nouns!A338:A2208,A259)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37355,7 +37487,7 @@
         <v>3191</v>
       </c>
       <c r="D260" s="0" t="e">
-        <f aca="false">+LOOKUP(A260,Nouns!A338:A2244,A260)</f>
+        <f aca="false">+LOOKUP(A260,Nouns!A338:A2209,A260)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -37370,49 +37502,49 @@
         <v>3303</v>
       </c>
       <c r="D261" s="0" t="e">
-        <f aca="false">+LOOKUP(A261,Nouns!A339:A2245,A261)</f>
+        <f aca="false">+LOOKUP(A261,Nouns!A339:A2210,A261)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D262" s="0" t="e">
-        <f aca="false">+LOOKUP(A262,Nouns!A340:A2246,A262)</f>
+        <f aca="false">+LOOKUP(A262,Nouns!A340:A2211,A262)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D263" s="0" t="e">
-        <f aca="false">+LOOKUP(A263,Nouns!A341:A2247,A263)</f>
+        <f aca="false">+LOOKUP(A263,Nouns!A341:A2212,A263)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D264" s="0" t="e">
-        <f aca="false">+LOOKUP(A264,Nouns!A342:A2248,A264)</f>
+        <f aca="false">+LOOKUP(A264,Nouns!A342:A2213,A264)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D265" s="0" t="e">
-        <f aca="false">+LOOKUP(A265,Nouns!A343:A2249,A265)</f>
+        <f aca="false">+LOOKUP(A265,Nouns!A343:A2214,A265)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D266" s="0" t="e">
-        <f aca="false">+LOOKUP(A266,Nouns!A344:A2250,A266)</f>
+        <f aca="false">+LOOKUP(A266,Nouns!A344:A2215,A266)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D267" s="0" t="e">
-        <f aca="false">+LOOKUP(A267,Nouns!A345:A2251,A267)</f>
+        <f aca="false">+LOOKUP(A267,Nouns!A345:A2216,A267)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D268" s="0" t="e">
-        <f aca="false">+LOOKUP(A268,Nouns!A346:A2252,A268)</f>
+        <f aca="false">+LOOKUP(A268,Nouns!A346:A2217,A268)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -38576,11 +38708,11 @@
   </sheetPr>
   <dimension ref="A2:D172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B167" activeCellId="0" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.62"/>
@@ -40880,4 +41012,242 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3956</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>3957</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3961</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3963</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3965</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3967</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3969</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3971</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3973</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3975</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3977</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3979</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3981</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3983</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3985</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3987</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>3989</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3991</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Nouns" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="old" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="old_comprehension" sheetId="6" state="hidden" r:id="rId7"/>
     <sheet name="Comprehension" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Lessons" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7392" uniqueCount="3992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7545" uniqueCount="4089">
   <si>
     <t xml:space="preserve">German</t>
   </si>
@@ -12020,6 +12021,339 @@
   <si>
     <t xml:space="preserve">Es ist ___, bei Fieber zu Hause zu bleiben.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Frage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lektion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Ananas rot?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, sie ist gelb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lektion-0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Brokkoli grün?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, er ist grün</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie ist gelb und krumm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist das Wetter heute?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist sonnig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Apfel ist rot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist grün zwischen Apfel, Karotte?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Apfel ist grün</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Tomate blau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, sie ist rot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Kürbis?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist orange und rund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Zitrone süß?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, sie ist sauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Himmel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist blau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist grün und frisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Aubergine lila?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, sie ist lila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist gelb zwischen Zitrone, Himbeere, Tomate?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Zitrone ist gelb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist das Wetter warm im Winter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, es ist kalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Apfel, rot oder orange?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist rot</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wie ist der Schnee, warm und </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">weiß</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, oder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">weiß und kalt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist weiß und kalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Möhre lila?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, sie ist orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist lila?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Aubergine ist lila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist das Wetter sonnig im Regen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, es ist nass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist die Gurke, kurz oder lang?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie ist lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Himmel grün?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, er ist blau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist das Wetter im Sommer, warm und sonnig, oder kalt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist warm und sonnig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Spinat gelb?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, er ist grün</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist die Tomate?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie ist rot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Apfel blau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, er ist rot oder grün</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist die Himbeere?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie ist rot und klein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Kürbis blau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, er ist orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist rund und gelb?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Zitrone ist rund und gelb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist das Wetter im Herbst?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist kühl und windig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist rot zwischen Apfel, Gurke und Zwiebel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Paprika rot?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, sie kann rot sein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Brokkoli?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist grün und buschig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Erdbeere lila?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist kalt zwischen Tee, Eis, Suppe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Eis ist kalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Regen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist nass und kühl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Mais blau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, er ist gelb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist orange zwischen Möhre, Apfel, Banane?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Möhre ist orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist die Zwiebel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie ist rund und weiß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Banane grün?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchmal, wenn sie nicht reif ist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist kühl?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Wind ist kühl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist die Orange?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie ist rund und orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Kartoffel blau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, sie ist braun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist gelb und krumm?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Banane ist gelb und krumm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Wind?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist stark oder schwach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Zucchini rosa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, sie ist grün</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist rund zwischen Kürbis, Möhre, Gurke?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Kürbis ist rund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Himmel im Sommer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist blau und klar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Spinat rot?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Nebel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist grau und dick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Himmel gelb?</t>
+  </si>
 </sst>
 </file>
 
@@ -12028,7 +12362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -12069,6 +12403,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -12162,10 +12501,10 @@
   <dimension ref="A1:E556"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.73"/>
@@ -18283,7 +18622,7 @@
       <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.1"/>
@@ -19200,11 +19539,11 @@
   </sheetPr>
   <dimension ref="A1:D1162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A449" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1173" activeCellId="0" sqref="A1173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.07"/>
@@ -32056,7 +32395,7 @@
       <selection pane="topLeft" activeCell="A204" activeCellId="0" sqref="A204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.62"/>
   </cols>
@@ -33588,7 +33927,7 @@
       <selection pane="topLeft" activeCell="D348" activeCellId="0" sqref="D348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.43"/>
@@ -38712,7 +39051,7 @@
       <selection pane="topLeft" activeCell="B167" activeCellId="0" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.62"/>
@@ -41021,11 +41360,11 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
   </cols>
@@ -41239,6 +41578,595 @@
       </c>
       <c r="C19" s="0" t="s">
         <v>3957</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3995</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3996</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3999</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4005</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>4009</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4011</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>4013</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>4014</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>4015</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>4016</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>4018</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>4024</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>4026</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>4034</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>4036</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>4040</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>4042</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>4043</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>4044</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>4045</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>4046</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>4048</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>4050</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>4052</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>4007</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>4062</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>4064</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>4066</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>4068</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>4073</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>4074</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>4076</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>4078</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>4080</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>4084</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>4087</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>4088</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>4034</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>3997</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7545" uniqueCount="4089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7515" uniqueCount="4071">
   <si>
     <t xml:space="preserve">German</t>
   </si>
@@ -12031,90 +12031,6 @@
     <t xml:space="preserve">Lektion</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist die Ananas rot?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, sie ist gelb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lektion-0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist der Brokkoli grün?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja, er ist grün</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sie ist gelb und krumm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist das Wetter heute?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es ist sonnig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Apfel ist rot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was ist grün zwischen Apfel, Karotte?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Apfel ist grün</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist die Tomate blau?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, sie ist rot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist der Kürbis?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er ist orange und rund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist die Zitrone süß?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, sie ist sauer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist der Himmel?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er ist blau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er ist grün und frisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist die Aubergine lila?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja, sie ist lila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was ist gelb zwischen Zitrone, Himbeere, Tomate?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Zitrone ist gelb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist das Wetter warm im Winter?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, es ist kalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist der Apfel, rot oder orange?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er ist rot</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -12122,7 +12038,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Wie ist der Schnee, warm und </t>
+      <t xml:space="preserve">Ist &lt;p style="background-color:powderblue;"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -12130,7 +12046,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">weiß</t>
+      <t xml:space="preserve">die Ananas</t>
     </r>
     <r>
       <rPr>
@@ -12139,7 +12055,24 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, oder </t>
+      <t xml:space="preserve">&lt;/p&gt; rot?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, sie ist gelb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lektion-0001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ist </t>
     </r>
     <r>
       <rPr>
@@ -12147,7 +12080,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">weiß und kalt</t>
+      <t xml:space="preserve">&lt;p style="background-color:powderblue;"&gt;der Brokkoli&lt;/p&gt; </t>
     </r>
     <r>
       <rPr>
@@ -12156,32 +12089,114 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">?</t>
+      <t xml:space="preserve">grün?</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Er ist weiß und kalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist die Möhre lila?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, sie ist orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was ist lila?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Aubergine ist lila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist das Wetter sonnig im Regen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, es ist nass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist die Gurke, kurz oder lang?</t>
+    <t xml:space="preserve">Ja, er ist grün</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Banane ist g—b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Banane ist gelb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist &lt;p style="background-color:powderblue;"&gt;das Wetter&lt;/p&gt; im Winter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist kalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Apfel ist r--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Apfel ist rot</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Was ist grün: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;p style="background-color:powderblue;"&gt;der Apfel&lt;/p&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> oder &lt;p style="background-color:powderblue;"&gt;die Karotte&lt;/p&gt;?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Apfel ist grün</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist &lt;p style="background-color:powderblue;"&gt;die Tomate&lt;/p&gt; blau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, sie ist rot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist &lt;p style="background-color:powderblue;"&gt;der Kürbis&lt;/p&gt;?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist orange und rund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist &lt;p style="background-color:powderblue;"&gt;die Zitrone&lt;/p&gt; süß?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, sie ist sauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Himmel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist blau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist grün und frisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Aubergine lila?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, sie ist lila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist gelb: die Zitrone, die Himbeere oder die Erdbeere?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Zitrone ist gelb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist das Wetter warm im Winter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, es ist kalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Schnee: warm oder kalt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist kalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist die Gurke: kurz oder lang?</t>
   </si>
   <si>
     <t xml:space="preserve">Sie ist lang</t>
@@ -12193,7 +12208,7 @@
     <t xml:space="preserve">Nein, er ist blau</t>
   </si>
   <si>
-    <t xml:space="preserve">Wie ist das Wetter im Sommer, warm und sonnig, oder kalt?</t>
+    <t xml:space="preserve">Wie ist das Wetter im Sommer?</t>
   </si>
   <si>
     <t xml:space="preserve">Es ist warm und sonnig</t>
@@ -12211,12 +12226,6 @@
     <t xml:space="preserve">Sie ist rot</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist der Apfel blau?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, er ist rot oder grün</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wie ist die Himbeere?</t>
   </si>
   <si>
@@ -12229,37 +12238,31 @@
     <t xml:space="preserve">Nein, er ist orange</t>
   </si>
   <si>
-    <t xml:space="preserve">Was ist rund und gelb?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Zitrone ist rund und gelb</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wie ist das Wetter im Herbst?</t>
   </si>
   <si>
     <t xml:space="preserve">Es ist kühl und windig</t>
   </si>
   <si>
-    <t xml:space="preserve">Was ist rot zwischen Apfel, Gurke und Zwiebel?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist die Paprika rot?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja, sie kann rot sein</t>
+    <t xml:space="preserve">Was ist rot: der Apfel, die Gurke oder die Zwiebel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Paprika braun?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, sie ist rot, gelb, orange oder grün</t>
   </si>
   <si>
     <t xml:space="preserve">Wie ist der Brokkoli?</t>
   </si>
   <si>
-    <t xml:space="preserve">Er ist grün und buschig</t>
+    <t xml:space="preserve">Er ist grün</t>
   </si>
   <si>
     <t xml:space="preserve">Ist die Erdbeere lila?</t>
   </si>
   <si>
-    <t xml:space="preserve">Was ist kalt zwischen Tee, Eis, Suppe?</t>
+    <t xml:space="preserve">Was ist kalt: der Tee, das Eis oder die Suppe?</t>
   </si>
   <si>
     <t xml:space="preserve">Das Eis ist kalt</t>
@@ -12271,58 +12274,28 @@
     <t xml:space="preserve">Er ist nass und kühl</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist der Mais blau?</t>
+    <t xml:space="preserve">Ist der Mais schwarz?</t>
   </si>
   <si>
     <t xml:space="preserve">Nein, er ist gelb</t>
   </si>
   <si>
-    <t xml:space="preserve">Was ist orange zwischen Möhre, Apfel, Banane?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Möhre ist orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist die Zwiebel?</t>
+    <t xml:space="preserve">Wie ist die Zwiebel: rund oder eckig?</t>
   </si>
   <si>
     <t xml:space="preserve">Sie ist rund und weiß</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist die Banane grün?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchmal, wenn sie nicht reif ist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was ist kühl?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Wind ist kühl</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wie ist die Orange?</t>
   </si>
   <si>
     <t xml:space="preserve">Sie ist rund und orange</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist die Kartoffel blau?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, sie ist braun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was ist gelb und krumm?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Banane ist gelb und krumm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist der Wind?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er ist stark oder schwach</t>
+    <t xml:space="preserve">Ist der Erdapfel (die Kartoffel) blau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, er (sie) ist braun</t>
   </si>
   <si>
     <t xml:space="preserve">Ist die Zucchini rosa?</t>
@@ -12331,7 +12304,7 @@
     <t xml:space="preserve">Nein, sie ist grün</t>
   </si>
   <si>
-    <t xml:space="preserve">Was ist rund zwischen Kürbis, Möhre, Gurke?</t>
+    <t xml:space="preserve">Was ist rund: der Kürbis, die Karotte oder die Gurke?</t>
   </si>
   <si>
     <t xml:space="preserve">Der Kürbis ist rund</t>
@@ -12353,6 +12326,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ist der Himmel gelb?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Himmel im Winter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist bewölkt </t>
   </si>
 </sst>
 </file>
@@ -12501,10 +12480,10 @@
   <dimension ref="A1:E556"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A1:C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.73"/>
@@ -18619,10 +18598,10 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
+      <selection pane="topLeft" activeCell="A81" activeCellId="1" sqref="A1:C41 A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.1"/>
@@ -19540,10 +19519,10 @@
   <dimension ref="A1:D1162"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A449" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1173" activeCellId="0" sqref="A1173"/>
+      <selection pane="topLeft" activeCell="A1173" activeCellId="1" sqref="A1:C41 A1173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.07"/>
@@ -32392,10 +32371,10 @@
   <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A204" activeCellId="0" sqref="A204"/>
+      <selection pane="topLeft" activeCell="A204" activeCellId="1" sqref="A1:C41 A204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.62"/>
   </cols>
@@ -33924,10 +33903,10 @@
   <dimension ref="A1:D376"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D348" activeCellId="0" sqref="D348"/>
+      <selection pane="topLeft" activeCell="D348" activeCellId="1" sqref="A1:C41 D348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.43"/>
@@ -39048,10 +39027,10 @@
   <dimension ref="A2:D172"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B167" activeCellId="0" sqref="B167"/>
+      <selection pane="topLeft" activeCell="B167" activeCellId="1" sqref="A1:C41 B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.62"/>
@@ -41361,10 +41340,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="A1:C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
   </cols>
@@ -41596,15 +41575,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.63"/>
   </cols>
   <sheetData>
@@ -41643,10 +41622,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3537</v>
+        <v>4000</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3997</v>
@@ -41654,10 +41633,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3997</v>
@@ -41665,10 +41644,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>3532</v>
+        <v>4004</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4003</v>
+        <v>4005</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3997</v>
@@ -41676,10 +41655,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>4004</v>
+        <v>4006</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4005</v>
+        <v>4007</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3997</v>
@@ -41687,10 +41666,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>4006</v>
+        <v>4008</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4007</v>
+        <v>4009</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3997</v>
@@ -41698,10 +41677,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>4008</v>
+        <v>4010</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4009</v>
+        <v>4011</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>3997</v>
@@ -41709,10 +41688,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>4010</v>
+        <v>4012</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4011</v>
+        <v>4013</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3997</v>
@@ -41720,10 +41699,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>4012</v>
+        <v>4014</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4013</v>
+        <v>4015</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3997</v>
@@ -41734,7 +41713,7 @@
         <v>3556</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4014</v>
+        <v>4016</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>3997</v>
@@ -41742,10 +41721,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>4015</v>
+        <v>4017</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4016</v>
+        <v>4018</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>3997</v>
@@ -41753,10 +41732,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>4017</v>
+        <v>4019</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>4018</v>
+        <v>4020</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>3997</v>
@@ -41764,10 +41743,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>4019</v>
+        <v>4021</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4020</v>
+        <v>4022</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>3997</v>
@@ -41775,10 +41754,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>4021</v>
+        <v>4023</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>4022</v>
+        <v>4024</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>3997</v>
@@ -41786,10 +41765,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>4023</v>
+        <v>4025</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>4024</v>
+        <v>4026</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>3997</v>
@@ -41797,10 +41776,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>4025</v>
+        <v>4027</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>4026</v>
+        <v>4028</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>3997</v>
@@ -41808,10 +41787,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>4027</v>
+        <v>4029</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4028</v>
+        <v>4030</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>3997</v>
@@ -41819,10 +41798,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>4029</v>
+        <v>4031</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>4030</v>
+        <v>4032</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>3997</v>
@@ -41830,10 +41809,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>4031</v>
+        <v>4033</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>3997</v>
@@ -41841,10 +41820,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>4033</v>
+        <v>4035</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>4034</v>
+        <v>4036</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>3997</v>
@@ -41852,10 +41831,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>4035</v>
+        <v>4037</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>4036</v>
+        <v>4038</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>3997</v>
@@ -41863,10 +41842,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>4037</v>
+        <v>4039</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>4038</v>
+        <v>4040</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>3997</v>
@@ -41874,10 +41853,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>4039</v>
+        <v>4041</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>4040</v>
+        <v>4005</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>3997</v>
@@ -41885,10 +41864,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>4042</v>
+        <v>4043</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>3997</v>
@@ -41896,10 +41875,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>4044</v>
+        <v>4045</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>3997</v>
@@ -41907,10 +41886,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>4046</v>
+        <v>4009</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>3997</v>
@@ -41943,7 +41922,7 @@
         <v>4051</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>4003</v>
+        <v>4052</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>3997</v>
@@ -41951,10 +41930,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>4052</v>
+        <v>4053</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>3997</v>
@@ -41962,10 +41941,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>3997</v>
@@ -41973,10 +41952,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>4007</v>
+        <v>4058</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>3997</v>
@@ -41984,10 +41963,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>4057</v>
+        <v>4059</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>4058</v>
+        <v>4060</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>3997</v>
@@ -41995,10 +41974,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>4059</v>
+        <v>4061</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>4060</v>
+        <v>4062</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>3997</v>
@@ -42006,10 +41985,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>4061</v>
+        <v>4063</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>4062</v>
+        <v>4064</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>3997</v>
@@ -42017,10 +41996,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>4063</v>
+        <v>4065</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>4064</v>
+        <v>4032</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>3997</v>
@@ -42028,10 +42007,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>3997</v>
@@ -42039,10 +42018,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>4067</v>
+        <v>4068</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>4068</v>
+        <v>4028</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>3997</v>
@@ -42056,116 +42035,6 @@
         <v>4070</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>4071</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>4072</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>4073</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>4074</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>4075</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>4076</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>4077</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>4078</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>4079</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>4080</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>4081</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>4082</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>4083</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>4084</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>4085</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>4038</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>4086</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>4087</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>3997</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>4088</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>4034</v>
-      </c>
-      <c r="C51" s="0" t="s">
         <v>3997</v>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -12031,32 +12031,7 @@
     <t xml:space="preserve">Lektion</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ist &lt;p style="background-color:powderblue;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">die Ananas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/p&gt; rot?</t>
-    </r>
+    <t xml:space="preserve">Ist die Ananas rot?</t>
   </si>
   <si>
     <t xml:space="preserve">Nein, sie ist gelb</t>
@@ -12065,32 +12040,7 @@
     <t xml:space="preserve">lektion-0001</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ist </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;p style="background-color:powderblue;"&gt;der Brokkoli&lt;/p&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">grün?</t>
-    </r>
+    <t xml:space="preserve">Ist der Brokkoli grün?</t>
   </si>
   <si>
     <t xml:space="preserve">Ja, er ist grün</t>
@@ -12102,7 +12052,7 @@
     <t xml:space="preserve">Die Banane ist gelb</t>
   </si>
   <si>
-    <t xml:space="preserve">Wie ist &lt;p style="background-color:powderblue;"&gt;das Wetter&lt;/p&gt; im Winter?</t>
+    <t xml:space="preserve">Wie ist das Wetter im Winter?</t>
   </si>
   <si>
     <t xml:space="preserve">Es ist kalt</t>
@@ -12114,50 +12064,25 @@
     <t xml:space="preserve">Der Apfel ist rot</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Was ist grün: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;p style="background-color:powderblue;"&gt;der Apfel&lt;/p&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> oder &lt;p style="background-color:powderblue;"&gt;die Karotte&lt;/p&gt;?</t>
-    </r>
+    <t xml:space="preserve">Was ist grün: der Apfel  oder die Karotte?</t>
   </si>
   <si>
     <t xml:space="preserve">Der Apfel ist grün</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist &lt;p style="background-color:powderblue;"&gt;die Tomate&lt;/p&gt; blau?</t>
+    <t xml:space="preserve">Ist die Tomate blau?</t>
   </si>
   <si>
     <t xml:space="preserve">Nein, sie ist rot</t>
   </si>
   <si>
-    <t xml:space="preserve">Wie ist &lt;p style="background-color:powderblue;"&gt;der Kürbis&lt;/p&gt;?</t>
+    <t xml:space="preserve">Wie ist der Kürbis?</t>
   </si>
   <si>
     <t xml:space="preserve">Er ist orange und rund</t>
   </si>
   <si>
-    <t xml:space="preserve">Ist &lt;p style="background-color:powderblue;"&gt;die Zitrone&lt;/p&gt; süß?</t>
+    <t xml:space="preserve">Ist die Zitrone süß?</t>
   </si>
   <si>
     <t xml:space="preserve">Nein, sie ist sauer</t>
@@ -12341,7 +12266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -12382,11 +12307,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -12480,10 +12400,10 @@
   <dimension ref="A1:E556"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A1:C41"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.73"/>
@@ -18598,10 +18518,10 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A81" activeCellId="1" sqref="A1:C41 A81"/>
+      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.1"/>
@@ -19519,10 +19439,10 @@
   <dimension ref="A1:D1162"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A449" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1173" activeCellId="1" sqref="A1:C41 A1173"/>
+      <selection pane="topLeft" activeCell="A1173" activeCellId="0" sqref="A1173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.07"/>
@@ -32371,10 +32291,10 @@
   <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A204" activeCellId="1" sqref="A1:C41 A204"/>
+      <selection pane="topLeft" activeCell="A204" activeCellId="0" sqref="A204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.62"/>
   </cols>
@@ -33903,10 +33823,10 @@
   <dimension ref="A1:D376"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D348" activeCellId="1" sqref="A1:C41 D348"/>
+      <selection pane="topLeft" activeCell="D348" activeCellId="0" sqref="D348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.43"/>
@@ -39027,10 +38947,10 @@
   <dimension ref="A2:D172"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B167" activeCellId="1" sqref="A1:C41 B167"/>
+      <selection pane="topLeft" activeCell="B167" activeCellId="0" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.62"/>
@@ -41340,10 +41260,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="A1:C41"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
   </cols>
@@ -41577,11 +41497,11 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.63"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -12064,7 +12064,7 @@
     <t xml:space="preserve">Der Apfel ist rot</t>
   </si>
   <si>
-    <t xml:space="preserve">Was ist grün: der Apfel  oder die Karotte?</t>
+    <t xml:space="preserve">Was ist grün: der Apfel oder die Karotte?</t>
   </si>
   <si>
     <t xml:space="preserve">Der Apfel ist grün</t>
@@ -12403,7 +12403,7 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.73"/>
@@ -18521,7 +18521,7 @@
       <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.1"/>
@@ -19442,7 +19442,7 @@
       <selection pane="topLeft" activeCell="A1173" activeCellId="0" sqref="A1173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.07"/>
@@ -32294,7 +32294,7 @@
       <selection pane="topLeft" activeCell="A204" activeCellId="0" sqref="A204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.62"/>
   </cols>
@@ -33826,7 +33826,7 @@
       <selection pane="topLeft" activeCell="D348" activeCellId="0" sqref="D348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.43"/>
@@ -38950,7 +38950,7 @@
       <selection pane="topLeft" activeCell="B167" activeCellId="0" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.62"/>
@@ -41263,7 +41263,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
   </cols>
@@ -41497,11 +41497,11 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.63"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7515" uniqueCount="4071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="4151">
   <si>
     <t xml:space="preserve">German</t>
   </si>
@@ -12058,120 +12058,123 @@
     <t xml:space="preserve">Es ist kalt</t>
   </si>
   <si>
-    <t xml:space="preserve">Der Apfel ist r--</t>
+    <t xml:space="preserve">Ein Apfel ist r--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Apfel ist rot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist grün: der Apfel oder die Karotte?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Apfel ist grün</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Tomate blau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, sie ist rot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Kürbis?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist orange und rund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Zitrone süß?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, sie ist sauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Himmel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist blau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist grün und frisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Aubergine lila?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, sie ist lila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist gelb: die Zitrone, die Himbeere oder die Erdbeere?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Zitrone ist gelb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist das Wetter warm im Winter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, es ist kalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Schnee: warm oder kalt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist kalt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist die Gurke: kurz oder lang?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie ist lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Himmel grün?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, er ist blau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist das Wetter im Sommer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist warm und sonnig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Spinat gelb?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, er ist grün</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist eine Tomate?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Tomate ist rot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist die Himbeere?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie ist rot und klein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Kürbis blau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, er ist orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist das Wetter im Herbst?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist kühl und windig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist rot: ein Apfel, eine Gurke oder eine Zwiebel?</t>
   </si>
   <si>
     <t xml:space="preserve">Der Apfel ist rot</t>
   </si>
   <si>
-    <t xml:space="preserve">Was ist grün: der Apfel oder die Karotte?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Apfel ist grün</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist die Tomate blau?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, sie ist rot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist der Kürbis?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er ist orange und rund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist die Zitrone süß?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, sie ist sauer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist der Himmel?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er ist blau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er ist grün und frisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist die Aubergine lila?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja, sie ist lila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was ist gelb: die Zitrone, die Himbeere oder die Erdbeere?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Zitrone ist gelb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist das Wetter warm im Winter?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, es ist kalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist der Schnee: warm oder kalt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er ist kalt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist die Gurke: kurz oder lang?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sie ist lang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist der Himmel grün?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, er ist blau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist das Wetter im Sommer?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es ist warm und sonnig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist der Spinat gelb?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, er ist grün</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist die Tomate?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sie ist rot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist die Himbeere?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sie ist rot und klein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ist der Kürbis blau?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein, er ist orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie ist das Wetter im Herbst?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es ist kühl und windig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was ist rot: der Apfel, die Gurke oder die Zwiebel?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ist die Paprika braun?</t>
   </si>
   <si>
@@ -12229,7 +12232,7 @@
     <t xml:space="preserve">Nein, sie ist grün</t>
   </si>
   <si>
-    <t xml:space="preserve">Was ist rund: der Kürbis, die Karotte oder die Gurke?</t>
+    <t xml:space="preserve">Was ist rund: ein Kürbis, eine Karotte oder eine Gurke?</t>
   </si>
   <si>
     <t xml:space="preserve">Der Kürbis ist rund</t>
@@ -12257,6 +12260,293 @@
   </si>
   <si>
     <t xml:space="preserve">Er ist bewölkt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Frühling kalt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nein, er ist warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Nacht dunkel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, sie ist dunkel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Tag hell?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, er ist hell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist der Abend dunkel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, er ist dunkel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Sonne heiß?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, sie ist heiß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist das Gras grün?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, es ist grün</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist das Gras: blau, rot oder grün?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist grün</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist heiß: die Sonne, das Eis oder der Schnee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Sonne ist heiß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist die Milch: rot, weiß oder blau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Milch ist weiß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Grapefruit bitter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, sie ist bitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist die Mango süß?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, sie ist süß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie sind die Ananas: gelb, schwarz oder blau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie sind gelb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie sind die Mangos: gelb, schwarz oder blau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie ist der Pfirsich: sauer, süß oder bitter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist süß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie heißt dein Großvater?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er heißt Heinrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lektion-0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie heißt deine Großmutter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie heißt Gertrud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie heißt dein Vater?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er heißt Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie heißt deine Mutter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie heißt Sabine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie viele Geschwister hast du?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe 2 (zwei) Geschwister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie heißt deine Schwester?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie heißt Lisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie heißt dein Bruder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er heißt Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie viele Onkel hast du?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe 2 (zwei) Onkel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer ist die Ehefrau von Thomas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie heißt Julia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie viele Cousins hast du?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe 4 (vier) Cousins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie heißt der Sohn von Thomas und Julia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er heißt Jonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie heißt die Tochter von Thomas und Julia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie heißt Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie heißt die Tochter von Andreas und Karin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie heißt Lena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer ist Lena?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie ist die Tochter von Andreas und Karin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer ist Paul?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist der Sohn von Andreas und Karin. Er ist mein Cousin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie heißt deine Ehefrau?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie heißt Anna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer ist Gertrud?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie ist meine Oma (Großmutter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie viele Tanten hast du?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe 2 (zwei) Tanten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer ist Max?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist mein Bruder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer ist Lisa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie ist meine Schwester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer ist Sabine?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie ist meine Mutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer ist Heinrich?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er ist mein Opa (Großvater)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie viele Kinder haben Andreas und Karin?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sie haben 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(zwei)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Kinder</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie viele Kinder haben Gertrud und Heinrich?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sie haben 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(zwei) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Kinder</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie viele Kinder haben Thomas und Julia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie viele Kinder haben Sabine und Martin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie haben 3 (drei) Kinder</t>
   </si>
 </sst>
 </file>
@@ -12266,7 +12556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -12307,6 +12597,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -12403,7 +12698,7 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.73"/>
@@ -18521,7 +18816,7 @@
       <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.1"/>
@@ -19442,7 +19737,7 @@
       <selection pane="topLeft" activeCell="A1173" activeCellId="0" sqref="A1173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.07"/>
@@ -32294,7 +32589,7 @@
       <selection pane="topLeft" activeCell="A204" activeCellId="0" sqref="A204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.62"/>
   </cols>
@@ -33826,7 +34121,7 @@
       <selection pane="topLeft" activeCell="D348" activeCellId="0" sqref="D348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.43"/>
@@ -38950,7 +39245,7 @@
       <selection pane="topLeft" activeCell="B167" activeCellId="0" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.62"/>
@@ -41263,7 +41558,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.59"/>
   </cols>
@@ -41495,13 +41790,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.63"/>
@@ -41776,7 +42071,7 @@
         <v>4041</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>4005</v>
+        <v>4042</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>3997</v>
@@ -41784,10 +42079,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>4042</v>
+        <v>4043</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>3997</v>
@@ -41795,10 +42090,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>4044</v>
+        <v>4045</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>3997</v>
@@ -41806,7 +42101,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>4009</v>
@@ -41817,10 +42112,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>3997</v>
@@ -41828,10 +42123,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>3997</v>
@@ -41839,10 +42134,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>4051</v>
+        <v>4052</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>4052</v>
+        <v>4053</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>3997</v>
@@ -41850,10 +42145,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>3997</v>
@@ -41861,10 +42156,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>3997</v>
@@ -41872,10 +42167,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>4058</v>
+        <v>4059</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>3997</v>
@@ -41883,10 +42178,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>3997</v>
@@ -41894,10 +42189,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>4061</v>
+        <v>4062</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>3997</v>
@@ -41905,10 +42200,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>3997</v>
@@ -41916,7 +42211,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>4032</v>
@@ -41927,10 +42222,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>4067</v>
+        <v>4068</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>3997</v>
@@ -41938,7 +42233,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>4028</v>
@@ -41949,13 +42244,453 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>3997</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>4076</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>4084</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>4087</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>4088</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>4091</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>4092</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>4095</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>4095</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>4100</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>4103</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>4107</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>4108</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>4109</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>4111</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>4115</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>4117</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>4119</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>4123</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
+        <v>4124</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>4125</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="s">
+        <v>4126</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>4127</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>4130</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>4131</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>4133</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
+        <v>4134</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>4135</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>4136</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>4137</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>4139</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>4141</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>4142</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>4145</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>4147</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>4148</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>4147</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>4150</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>4101</v>
       </c>
     </row>
   </sheetData>
